--- a/DocGOSTSources/ExcelExport/Templates/specification.xlsx
+++ b/DocGOSTSources/ExcelExport/Templates/specification.xlsx
@@ -5,19 +5,26 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\Internal projects\GOSTDocBuilder\DocGOST\ExcelExport\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikhail\Documents\Шаблоны гост документов Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C135512C-D398-4AEE-9698-C6C05C58BB07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7424EB-1C93-4199-B329-C9AA8A34D593}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29220" yWindow="315" windowWidth="12825" windowHeight="16605" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13930" yWindow="5300" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="8" r:id="rId1"/>
     <sheet name="2" sheetId="6" r:id="rId2"/>
     <sheet name="ЛРИ" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -133,7 +140,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -806,7 +813,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -943,50 +950,356 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="31" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="35" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="35" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="17" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="31" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="35" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="31" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="34" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="35" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="39" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="38" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="23" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="24" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" shrinkToFit="1"/>
@@ -994,230 +1307,50 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="17" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="31" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="34" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="35" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="39" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="38" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1228,84 +1361,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1360,56 +1415,92 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1424,12 +1515,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1438,41 +1523,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -1836,247 +1894,247 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB754166-E88B-463A-92FB-207402022B99}">
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L43" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="3.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="3.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="0.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="2.54296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="3.36328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="3.54296875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="0.26953125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="1" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.08984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.54296875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.08984375" style="1" customWidth="1"/>
     <col min="12" max="12" width="7" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="1.5703125" style="1" customWidth="1"/>
-    <col min="16" max="18" width="2.42578125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="1.42578125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="5.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7265625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.90625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="1.54296875" style="1" customWidth="1"/>
+    <col min="16" max="18" width="2.453125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="1.36328125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="5.08984375" style="1" customWidth="1"/>
     <col min="21" max="21" width="1" style="1" customWidth="1"/>
     <col min="22" max="22" width="10" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.7109375" style="1"/>
+    <col min="23" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="5" customFormat="1" ht="42.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="5" customFormat="1" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="3"/>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="65" t="s">
+      <c r="C1" s="159"/>
+      <c r="D1" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="66"/>
+      <c r="E1" s="163"/>
       <c r="F1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="G1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="93"/>
-      <c r="I1" s="94" t="s">
+      <c r="H1" s="82"/>
+      <c r="I1" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="94" t="s">
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="96"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="85"/>
       <c r="T1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="97" t="s">
+      <c r="U1" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="98"/>
-    </row>
-    <row r="2" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="150"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
+      <c r="V1" s="87"/>
+    </row>
+    <row r="2" spans="1:22" ht="24" customHeight="1">
+      <c r="A2" s="157"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
       <c r="F2" s="50"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="91"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="80"/>
       <c r="T2" s="38"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="61"/>
-    </row>
-    <row r="3" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="150"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="62"/>
+    </row>
+    <row r="3" spans="1:22" ht="24" customHeight="1">
+      <c r="A3" s="157"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
       <c r="D3" s="54"/>
       <c r="E3" s="55"/>
       <c r="F3" s="49"/>
       <c r="G3" s="54"/>
       <c r="H3" s="55"/>
       <c r="I3" s="54"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
       <c r="M3" s="55"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="76"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="69"/>
       <c r="T3" s="39"/>
       <c r="U3" s="54"/>
       <c r="V3" s="55"/>
     </row>
-    <row r="4" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="150"/>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
+    <row r="4" spans="1:22" ht="24" customHeight="1">
+      <c r="A4" s="157"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
       <c r="D4" s="54"/>
       <c r="E4" s="55"/>
       <c r="F4" s="49"/>
       <c r="G4" s="54"/>
       <c r="H4" s="55"/>
       <c r="I4" s="54"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
       <c r="M4" s="55"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="76"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="69"/>
       <c r="T4" s="39"/>
       <c r="U4" s="54"/>
       <c r="V4" s="55"/>
     </row>
-    <row r="5" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="150"/>
-      <c r="B5" s="153"/>
-      <c r="C5" s="153"/>
+    <row r="5" spans="1:22" ht="24" customHeight="1">
+      <c r="A5" s="157"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
       <c r="D5" s="54"/>
       <c r="E5" s="55"/>
       <c r="F5" s="49"/>
       <c r="G5" s="54"/>
       <c r="H5" s="55"/>
       <c r="I5" s="54"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
       <c r="M5" s="55"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="39"/>
       <c r="U5" s="54"/>
       <c r="V5" s="55"/>
     </row>
-    <row r="6" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="150"/>
-      <c r="B6" s="153"/>
-      <c r="C6" s="153"/>
+    <row r="6" spans="1:22" ht="24" customHeight="1">
+      <c r="A6" s="157"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="160"/>
       <c r="D6" s="54"/>
       <c r="E6" s="55"/>
       <c r="F6" s="49"/>
       <c r="G6" s="54"/>
       <c r="H6" s="55"/>
       <c r="I6" s="54"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
       <c r="M6" s="55"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="76"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="69"/>
       <c r="T6" s="39"/>
       <c r="U6" s="54"/>
       <c r="V6" s="55"/>
     </row>
-    <row r="7" spans="1:22" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="150"/>
-      <c r="B7" s="154"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="56"/>
+    <row r="7" spans="1:22" ht="8" customHeight="1" thickBot="1">
+      <c r="A7" s="157"/>
+      <c r="B7" s="161"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="64"/>
       <c r="E7" s="57"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="76"/>
-      <c r="T7" s="80"/>
-      <c r="U7" s="56"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="64"/>
       <c r="V7" s="57"/>
     </row>
-    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="151"/>
+    <row r="8" spans="1:22" ht="16" customHeight="1">
+      <c r="A8" s="158"/>
       <c r="B8" s="119" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="122"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="75"/>
-      <c r="S8" s="76"/>
-      <c r="T8" s="81"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="59"/>
-    </row>
-    <row r="9" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="151"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="66"/>
+    </row>
+    <row r="9" spans="1:22" ht="24" customHeight="1">
+      <c r="A9" s="158"/>
       <c r="B9" s="120"/>
       <c r="C9" s="123"/>
       <c r="D9" s="54"/>
@@ -2085,22 +2143,22 @@
       <c r="G9" s="54"/>
       <c r="H9" s="55"/>
       <c r="I9" s="54"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
       <c r="M9" s="55"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="76"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="69"/>
       <c r="T9" s="39"/>
       <c r="U9" s="54"/>
       <c r="V9" s="55"/>
     </row>
-    <row r="10" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="151"/>
+    <row r="10" spans="1:22" ht="24" customHeight="1">
+      <c r="A10" s="158"/>
       <c r="B10" s="120"/>
       <c r="C10" s="123"/>
       <c r="D10" s="54"/>
@@ -2109,22 +2167,22 @@
       <c r="G10" s="54"/>
       <c r="H10" s="55"/>
       <c r="I10" s="54"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
       <c r="M10" s="55"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="76"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="69"/>
       <c r="T10" s="39"/>
       <c r="U10" s="54"/>
       <c r="V10" s="55"/>
     </row>
-    <row r="11" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="151"/>
+    <row r="11" spans="1:22" ht="24" customHeight="1">
+      <c r="A11" s="158"/>
       <c r="B11" s="120"/>
       <c r="C11" s="123"/>
       <c r="D11" s="54"/>
@@ -2133,22 +2191,22 @@
       <c r="G11" s="54"/>
       <c r="H11" s="55"/>
       <c r="I11" s="54"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
       <c r="M11" s="55"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="75"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="75"/>
-      <c r="S11" s="76"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="69"/>
       <c r="T11" s="39"/>
       <c r="U11" s="54"/>
       <c r="V11" s="55"/>
     </row>
-    <row r="12" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="151"/>
+    <row r="12" spans="1:22" ht="24" customHeight="1">
+      <c r="A12" s="158"/>
       <c r="B12" s="120"/>
       <c r="C12" s="123"/>
       <c r="D12" s="54"/>
@@ -2157,21 +2215,21 @@
       <c r="G12" s="54"/>
       <c r="H12" s="55"/>
       <c r="I12" s="54"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
       <c r="M12" s="55"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="75"/>
-      <c r="S12" s="76"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="69"/>
       <c r="T12" s="39"/>
       <c r="U12" s="54"/>
       <c r="V12" s="55"/>
     </row>
-    <row r="13" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="24" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="120"/>
       <c r="C13" s="123"/>
@@ -2181,21 +2239,21 @@
       <c r="G13" s="54"/>
       <c r="H13" s="55"/>
       <c r="I13" s="54"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
       <c r="M13" s="55"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="75"/>
-      <c r="S13" s="76"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="69"/>
       <c r="T13" s="39"/>
       <c r="U13" s="54"/>
       <c r="V13" s="55"/>
     </row>
-    <row r="14" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="24" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="120"/>
       <c r="C14" s="123"/>
@@ -2205,69 +2263,69 @@
       <c r="G14" s="54"/>
       <c r="H14" s="55"/>
       <c r="I14" s="54"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
       <c r="M14" s="55"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="76"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="69"/>
       <c r="T14" s="39"/>
       <c r="U14" s="54"/>
       <c r="V14" s="55"/>
     </row>
-    <row r="15" spans="1:22" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="10" customHeight="1" thickBot="1">
       <c r="A15" s="2"/>
       <c r="B15" s="121"/>
       <c r="C15" s="124"/>
-      <c r="D15" s="56"/>
+      <c r="D15" s="64"/>
       <c r="E15" s="57"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="75"/>
-      <c r="S15" s="76"/>
-      <c r="T15" s="80"/>
-      <c r="U15" s="56"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="64"/>
       <c r="V15" s="57"/>
     </row>
-    <row r="16" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="14" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="40"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="75"/>
-      <c r="Q16" s="75"/>
-      <c r="R16" s="75"/>
-      <c r="S16" s="76"/>
-      <c r="T16" s="81"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="59"/>
-    </row>
-    <row r="17" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="65"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="66"/>
+    </row>
+    <row r="17" spans="1:22" ht="24" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="27"/>
       <c r="C17" s="9"/>
@@ -2277,71 +2335,71 @@
       <c r="G17" s="54"/>
       <c r="H17" s="55"/>
       <c r="I17" s="54"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
       <c r="M17" s="55"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="75"/>
-      <c r="S17" s="76"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="69"/>
       <c r="T17" s="39"/>
       <c r="U17" s="54"/>
       <c r="V17" s="55"/>
     </row>
-    <row r="18" spans="1:22" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A18" s="2"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
-      <c r="D18" s="56"/>
+      <c r="D18" s="64"/>
       <c r="E18" s="57"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="76"/>
-      <c r="T18" s="80"/>
-      <c r="U18" s="56"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="64"/>
       <c r="V18" s="57"/>
     </row>
-    <row r="19" spans="1:22" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" ht="10.75" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="119" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="122"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="75"/>
-      <c r="Q19" s="75"/>
-      <c r="R19" s="75"/>
-      <c r="S19" s="76"/>
-      <c r="T19" s="81"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="59"/>
-    </row>
-    <row r="20" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="65"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="66"/>
+    </row>
+    <row r="20" spans="1:22" ht="24" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="120"/>
       <c r="C20" s="123"/>
@@ -2351,21 +2409,21 @@
       <c r="G20" s="54"/>
       <c r="H20" s="55"/>
       <c r="I20" s="54"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
       <c r="M20" s="55"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="75"/>
-      <c r="S20" s="76"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="69"/>
       <c r="T20" s="39"/>
       <c r="U20" s="54"/>
       <c r="V20" s="55"/>
     </row>
-    <row r="21" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" ht="24" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="120"/>
       <c r="C21" s="123"/>
@@ -2375,21 +2433,21 @@
       <c r="G21" s="54"/>
       <c r="H21" s="55"/>
       <c r="I21" s="54"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
       <c r="M21" s="55"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="75"/>
-      <c r="Q21" s="75"/>
-      <c r="R21" s="75"/>
-      <c r="S21" s="76"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="69"/>
       <c r="T21" s="39"/>
       <c r="U21" s="54"/>
       <c r="V21" s="55"/>
     </row>
-    <row r="22" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" ht="24" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="120"/>
       <c r="C22" s="123"/>
@@ -2399,71 +2457,71 @@
       <c r="G22" s="54"/>
       <c r="H22" s="55"/>
       <c r="I22" s="54"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
       <c r="M22" s="55"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="75"/>
-      <c r="S22" s="76"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="68"/>
+      <c r="S22" s="69"/>
       <c r="T22" s="39"/>
       <c r="U22" s="54"/>
       <c r="V22" s="55"/>
     </row>
-    <row r="23" spans="1:22" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="16.5" customHeight="1" thickBot="1">
       <c r="A23" s="2"/>
       <c r="B23" s="121"/>
       <c r="C23" s="124"/>
-      <c r="D23" s="56"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="57"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="75"/>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="75"/>
-      <c r="R23" s="75"/>
-      <c r="S23" s="76"/>
-      <c r="T23" s="80"/>
-      <c r="U23" s="56"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="69"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="64"/>
       <c r="V23" s="57"/>
     </row>
-    <row r="24" spans="1:22" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" ht="7.5" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="119" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="122"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="75"/>
-      <c r="R24" s="75"/>
-      <c r="S24" s="76"/>
-      <c r="T24" s="81"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="59"/>
-    </row>
-    <row r="25" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="65"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="69"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="65"/>
+      <c r="V24" s="66"/>
+    </row>
+    <row r="25" spans="1:22" ht="24" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="120"/>
       <c r="C25" s="123"/>
@@ -2473,21 +2531,21 @@
       <c r="G25" s="54"/>
       <c r="H25" s="55"/>
       <c r="I25" s="54"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
       <c r="M25" s="55"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="75"/>
-      <c r="R25" s="75"/>
-      <c r="S25" s="76"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="69"/>
       <c r="T25" s="39"/>
       <c r="U25" s="54"/>
       <c r="V25" s="55"/>
     </row>
-    <row r="26" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" ht="24" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="120"/>
       <c r="C26" s="123"/>
@@ -2497,181 +2555,181 @@
       <c r="G26" s="54"/>
       <c r="H26" s="55"/>
       <c r="I26" s="54"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
       <c r="M26" s="55"/>
-      <c r="N26" s="74"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="75"/>
-      <c r="S26" s="76"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="69"/>
       <c r="T26" s="39"/>
       <c r="U26" s="54"/>
       <c r="V26" s="55"/>
     </row>
-    <row r="27" spans="1:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="15" customHeight="1" thickBot="1">
       <c r="A27" s="2"/>
       <c r="B27" s="121"/>
       <c r="C27" s="124"/>
-      <c r="D27" s="56"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="57"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="76"/>
-      <c r="T27" s="80"/>
-      <c r="U27" s="56"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="68"/>
+      <c r="S27" s="69"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="64"/>
       <c r="V27" s="57"/>
     </row>
-    <row r="28" spans="1:22" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" ht="9" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="119" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="122"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="74"/>
-      <c r="O28" s="75"/>
-      <c r="P28" s="75"/>
-      <c r="Q28" s="75"/>
-      <c r="R28" s="75"/>
-      <c r="S28" s="76"/>
-      <c r="T28" s="81"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="59"/>
-    </row>
-    <row r="29" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="156"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="68"/>
+      <c r="S28" s="69"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="65"/>
+      <c r="V28" s="66"/>
+    </row>
+    <row r="29" spans="1:22" ht="24" customHeight="1" thickBot="1">
       <c r="A29" s="2"/>
       <c r="B29" s="120"/>
       <c r="C29" s="123"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="74"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="75"/>
-      <c r="R29" s="75"/>
-      <c r="S29" s="76"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="55"/>
-    </row>
-    <row r="30" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="56"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="147"/>
+      <c r="O29" s="148"/>
+      <c r="P29" s="148"/>
+      <c r="Q29" s="148"/>
+      <c r="R29" s="148"/>
+      <c r="S29" s="149"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="57"/>
+    </row>
+    <row r="30" spans="1:22" ht="24" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="120"/>
       <c r="C30" s="123"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="78"/>
-      <c r="Q30" s="78"/>
-      <c r="R30" s="78"/>
-      <c r="S30" s="79"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="54"/>
-      <c r="V30" s="55"/>
-    </row>
-    <row r="31" spans="1:22" ht="9.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="96"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="97"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="97"/>
+      <c r="L30" s="97"/>
+      <c r="M30" s="97"/>
+      <c r="N30" s="97"/>
+      <c r="O30" s="97"/>
+      <c r="P30" s="97"/>
+      <c r="Q30" s="97"/>
+      <c r="R30" s="97"/>
+      <c r="S30" s="97"/>
+      <c r="T30" s="97"/>
+      <c r="U30" s="97"/>
+      <c r="V30" s="102"/>
+    </row>
+    <row r="31" spans="1:22" ht="9" customHeight="1" thickBot="1">
       <c r="A31" s="2"/>
       <c r="B31" s="120"/>
       <c r="C31" s="123"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="140"/>
-      <c r="F31" s="140"/>
-      <c r="G31" s="140"/>
-      <c r="H31" s="140"/>
-      <c r="I31" s="140"/>
-      <c r="J31" s="140"/>
-      <c r="K31" s="140"/>
-      <c r="L31" s="125"/>
-      <c r="M31" s="125"/>
-      <c r="N31" s="125"/>
-      <c r="O31" s="125"/>
-      <c r="P31" s="125"/>
-      <c r="Q31" s="125"/>
-      <c r="R31" s="125"/>
-      <c r="S31" s="125"/>
-      <c r="T31" s="125"/>
-      <c r="U31" s="125"/>
-      <c r="V31" s="126"/>
-    </row>
-    <row r="32" spans="1:22" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="98"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="101"/>
+      <c r="N31" s="101"/>
+      <c r="O31" s="101"/>
+      <c r="P31" s="101"/>
+      <c r="Q31" s="101"/>
+      <c r="R31" s="101"/>
+      <c r="S31" s="101"/>
+      <c r="T31" s="101"/>
+      <c r="U31" s="101"/>
+      <c r="V31" s="103"/>
+    </row>
+    <row r="32" spans="1:22" ht="5" customHeight="1" thickBot="1">
       <c r="A32" s="2"/>
       <c r="B32" s="121"/>
       <c r="C32" s="124"/>
-      <c r="D32" s="141"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="143"/>
-      <c r="H32" s="143"/>
-      <c r="I32" s="143"/>
-      <c r="J32" s="143"/>
-      <c r="K32" s="143"/>
-      <c r="L32" s="146"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="139"/>
       <c r="M32" s="135"/>
       <c r="N32" s="136"/>
-      <c r="O32" s="139"/>
-      <c r="P32" s="140"/>
-      <c r="Q32" s="140"/>
-      <c r="R32" s="140"/>
-      <c r="S32" s="140"/>
-      <c r="T32" s="140"/>
-      <c r="U32" s="140"/>
-      <c r="V32" s="148"/>
-    </row>
-    <row r="33" spans="1:22" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O32" s="141"/>
+      <c r="P32" s="142"/>
+      <c r="Q32" s="142"/>
+      <c r="R32" s="142"/>
+      <c r="S32" s="142"/>
+      <c r="T32" s="142"/>
+      <c r="U32" s="142"/>
+      <c r="V32" s="143"/>
+    </row>
+    <row r="33" spans="1:22" ht="34.5" customHeight="1" thickBot="1">
       <c r="A33" s="2"/>
       <c r="B33" s="119" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="122"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="143"/>
-      <c r="H33" s="143"/>
-      <c r="I33" s="143"/>
-      <c r="J33" s="143"/>
-      <c r="K33" s="143"/>
-      <c r="L33" s="147"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="140"/>
       <c r="M33" s="137"/>
       <c r="N33" s="138"/>
       <c r="O33" s="144"/>
@@ -2681,23 +2739,23 @@
       <c r="S33" s="145"/>
       <c r="T33" s="145"/>
       <c r="U33" s="145"/>
-      <c r="V33" s="149"/>
-    </row>
-    <row r="34" spans="1:22" ht="22.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V33" s="146"/>
+    </row>
+    <row r="34" spans="1:22" ht="22.75" customHeight="1" thickBot="1">
       <c r="A34" s="2"/>
       <c r="B34" s="120"/>
       <c r="C34" s="123"/>
-      <c r="D34" s="144"/>
-      <c r="E34" s="145"/>
-      <c r="F34" s="145"/>
-      <c r="G34" s="145"/>
-      <c r="H34" s="145"/>
-      <c r="I34" s="145"/>
-      <c r="J34" s="145"/>
-      <c r="K34" s="145"/>
-      <c r="L34" s="99"/>
-      <c r="M34" s="99"/>
-      <c r="N34" s="99"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="101"/>
+      <c r="K34" s="101"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="88"/>
+      <c r="N34" s="88"/>
       <c r="O34" s="125"/>
       <c r="P34" s="125"/>
       <c r="Q34" s="125"/>
@@ -2707,14 +2765,14 @@
       <c r="U34" s="125"/>
       <c r="V34" s="126"/>
     </row>
-    <row r="35" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="14.25" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="120"/>
       <c r="C35" s="123"/>
       <c r="D35" s="36"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="69"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="151"/>
+      <c r="G35" s="152"/>
       <c r="H35" s="127"/>
       <c r="I35" s="127"/>
       <c r="J35" s="16"/>
@@ -2731,14 +2789,14 @@
       <c r="U35" s="128"/>
       <c r="V35" s="129"/>
     </row>
-    <row r="36" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="14.25" customHeight="1" thickBot="1">
       <c r="A36" s="2"/>
       <c r="B36" s="120"/>
       <c r="C36" s="123"/>
       <c r="D36" s="51"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="72"/>
+      <c r="E36" s="153"/>
+      <c r="F36" s="154"/>
+      <c r="G36" s="155"/>
       <c r="H36" s="134"/>
       <c r="I36" s="134"/>
       <c r="J36" s="41"/>
@@ -2755,18 +2813,18 @@
       <c r="U36" s="130"/>
       <c r="V36" s="131"/>
     </row>
-    <row r="37" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="14.25" customHeight="1" thickBot="1">
       <c r="A37" s="2"/>
       <c r="B37" s="121"/>
       <c r="C37" s="124"/>
       <c r="D37" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="62" t="s">
+      <c r="E37" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="F37" s="63"/>
-      <c r="G37" s="64"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="95"/>
       <c r="H37" s="118" t="s">
         <v>15</v>
       </c>
@@ -2789,7 +2847,7 @@
       <c r="U37" s="132"/>
       <c r="V37" s="133"/>
     </row>
-    <row r="38" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="15" customHeight="1" thickBot="1">
       <c r="A38" s="2"/>
       <c r="B38" s="104" t="s">
         <v>9</v>
@@ -2814,27 +2872,27 @@
       </c>
       <c r="Q38" s="118"/>
       <c r="R38" s="118"/>
-      <c r="S38" s="62" t="s">
+      <c r="S38" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="T38" s="63"/>
-      <c r="U38" s="64"/>
+      <c r="T38" s="94"/>
+      <c r="U38" s="95"/>
       <c r="V38" s="23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="14.25" customHeight="1" thickBot="1">
       <c r="A39" s="2"/>
       <c r="B39" s="104"/>
       <c r="C39" s="105"/>
-      <c r="D39" s="100" t="s">
+      <c r="D39" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="100"/>
-      <c r="F39" s="100"/>
-      <c r="G39" s="100"/>
-      <c r="H39" s="101"/>
-      <c r="I39" s="101"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="90"/>
       <c r="J39" s="43"/>
       <c r="K39" s="43"/>
       <c r="L39" s="111"/>
@@ -2844,90 +2902,90 @@
       <c r="P39" s="17"/>
       <c r="Q39" s="17"/>
       <c r="R39" s="17"/>
-      <c r="S39" s="62">
+      <c r="S39" s="93"/>
+      <c r="T39" s="94"/>
+      <c r="U39" s="95"/>
+      <c r="V39" s="23">
         <v>1</v>
       </c>
-      <c r="T39" s="63"/>
-      <c r="U39" s="64"/>
-      <c r="V39" s="23"/>
-    </row>
-    <row r="40" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:22" ht="14.25" customHeight="1" thickBot="1">
       <c r="A40" s="2"/>
       <c r="B40" s="104"/>
       <c r="C40" s="105"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="100"/>
-      <c r="G40" s="100"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="101"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
       <c r="J40" s="43"/>
       <c r="K40" s="43"/>
       <c r="L40" s="111"/>
       <c r="M40" s="112"/>
       <c r="N40" s="113"/>
       <c r="O40" s="114"/>
-      <c r="P40" s="99"/>
-      <c r="Q40" s="99"/>
-      <c r="R40" s="99"/>
-      <c r="S40" s="99"/>
-      <c r="T40" s="99"/>
-      <c r="U40" s="99"/>
-      <c r="V40" s="99"/>
-    </row>
-    <row r="41" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P40" s="88"/>
+      <c r="Q40" s="88"/>
+      <c r="R40" s="88"/>
+      <c r="S40" s="88"/>
+      <c r="T40" s="88"/>
+      <c r="U40" s="88"/>
+      <c r="V40" s="88"/>
+    </row>
+    <row r="41" spans="1:22" ht="14.25" customHeight="1" thickBot="1">
       <c r="A41" s="2"/>
       <c r="B41" s="104"/>
       <c r="C41" s="105"/>
-      <c r="D41" s="100" t="s">
+      <c r="D41" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="101"/>
-      <c r="I41" s="101"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="90"/>
+      <c r="I41" s="90"/>
       <c r="J41" s="43"/>
       <c r="K41" s="43"/>
       <c r="L41" s="111"/>
       <c r="M41" s="112"/>
       <c r="N41" s="113"/>
       <c r="O41" s="114"/>
-      <c r="P41" s="99"/>
-      <c r="Q41" s="99"/>
-      <c r="R41" s="99"/>
-      <c r="S41" s="99"/>
-      <c r="T41" s="99"/>
-      <c r="U41" s="99"/>
-      <c r="V41" s="99"/>
-    </row>
-    <row r="42" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P41" s="88"/>
+      <c r="Q41" s="88"/>
+      <c r="R41" s="88"/>
+      <c r="S41" s="88"/>
+      <c r="T41" s="88"/>
+      <c r="U41" s="88"/>
+      <c r="V41" s="88"/>
+    </row>
+    <row r="42" spans="1:22" ht="14" customHeight="1" thickBot="1">
       <c r="A42" s="2"/>
       <c r="B42" s="104"/>
       <c r="C42" s="105"/>
-      <c r="D42" s="102" t="s">
+      <c r="D42" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="102"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="102"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="103"/>
+      <c r="E42" s="91"/>
+      <c r="F42" s="91"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="92"/>
+      <c r="I42" s="92"/>
       <c r="J42" s="44"/>
       <c r="K42" s="44"/>
       <c r="L42" s="115"/>
       <c r="M42" s="116"/>
       <c r="N42" s="116"/>
       <c r="O42" s="117"/>
-      <c r="P42" s="99"/>
-      <c r="Q42" s="99"/>
-      <c r="R42" s="99"/>
-      <c r="S42" s="99"/>
-      <c r="T42" s="99"/>
-      <c r="U42" s="99"/>
-      <c r="V42" s="99"/>
-    </row>
-    <row r="43" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P42" s="88"/>
+      <c r="Q42" s="88"/>
+      <c r="R42" s="88"/>
+      <c r="S42" s="88"/>
+      <c r="T42" s="88"/>
+      <c r="U42" s="88"/>
+      <c r="V42" s="88"/>
+    </row>
+    <row r="43" spans="1:22" ht="13" customHeight="1">
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="45"/>
@@ -2955,7 +3013,7 @@
       <c r="V43" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="178">
+  <mergeCells count="173">
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B1:B7"/>
     <mergeCell ref="C1:C7"/>
@@ -2968,6 +3026,18 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="B8:B15"/>
     <mergeCell ref="C8:C15"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="B33:B37"/>
     <mergeCell ref="C33:C37"/>
     <mergeCell ref="L34:V34"/>
@@ -2976,17 +3046,19 @@
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="M32:N33"/>
-    <mergeCell ref="D31:K34"/>
-    <mergeCell ref="L31:V31"/>
     <mergeCell ref="L32:L33"/>
     <mergeCell ref="O32:V33"/>
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="C28:C32"/>
-    <mergeCell ref="P40:V42"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="N29:S29"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="D27:E28"/>
     <mergeCell ref="B38:B42"/>
     <mergeCell ref="C38:C42"/>
     <mergeCell ref="D38:G38"/>
@@ -2997,10 +3069,6 @@
     <mergeCell ref="H39:I39"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="H40:I40"/>
-    <mergeCell ref="S38:U38"/>
-    <mergeCell ref="S39:U39"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="N2:S2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="G3:H3"/>
@@ -3009,6 +3077,15 @@
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="N1:S1"/>
     <mergeCell ref="U1:V1"/>
+    <mergeCell ref="P40:V42"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="S38:U38"/>
+    <mergeCell ref="S39:U39"/>
+    <mergeCell ref="D30:K34"/>
+    <mergeCell ref="L30:V31"/>
     <mergeCell ref="N5:S5"/>
     <mergeCell ref="U5:V5"/>
     <mergeCell ref="G6:H6"/>
@@ -3038,6 +3115,11 @@
     <mergeCell ref="I10:M10"/>
     <mergeCell ref="N10:S10"/>
     <mergeCell ref="U10:V10"/>
+    <mergeCell ref="N13:S13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="N14:S14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="I11:M11"/>
     <mergeCell ref="T23:T24"/>
     <mergeCell ref="U23:V24"/>
     <mergeCell ref="G27:H28"/>
@@ -3053,13 +3135,13 @@
     <mergeCell ref="G23:H24"/>
     <mergeCell ref="I23:M24"/>
     <mergeCell ref="N23:S24"/>
-    <mergeCell ref="N13:S13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="N14:S14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:M25"/>
+    <mergeCell ref="N25:S25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="N26:S26"/>
+    <mergeCell ref="U26:V26"/>
     <mergeCell ref="N11:S11"/>
     <mergeCell ref="U11:V11"/>
     <mergeCell ref="G12:H12"/>
@@ -3080,34 +3162,8 @@
     <mergeCell ref="I21:M21"/>
     <mergeCell ref="N21:S21"/>
     <mergeCell ref="U21:V21"/>
-    <mergeCell ref="N29:S29"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:M30"/>
-    <mergeCell ref="N30:S30"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:M25"/>
-    <mergeCell ref="N25:S25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="N26:S26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:M29"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:M22"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="I14:M14"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:M5"/>
     <mergeCell ref="D2:E2"/>
@@ -3115,25 +3171,22 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D15:E16"/>
     <mergeCell ref="D7:E8"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="D27:E28"/>
-    <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="I26:M26"/>
   </mergeCells>
   <pageMargins left="2.0833333333333332E-2" right="0" top="2.0833333333333332E-2" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3146,854 +3199,854 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38:G39"/>
+      <selection activeCell="I5" sqref="I5:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="3.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="3.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="0.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.54296875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="3.36328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="3.54296875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="0.26953125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="1" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.08984375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.54296875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.08984375" style="1" customWidth="1"/>
     <col min="12" max="12" width="7" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="24.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="5.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6" style="1" customWidth="1"/>
-    <col min="18" max="18" width="5.140625" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="1"/>
+    <col min="13" max="13" width="5.7265625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7265625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6.453125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="5.08984375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5.90625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="5.08984375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1" ht="42.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="186"/>
-      <c r="B1" s="186"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="161" t="s">
+    <row r="1" spans="1:18" s="5" customFormat="1" ht="42" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A1" s="198"/>
+      <c r="B1" s="198"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="162"/>
+      <c r="E1" s="171"/>
       <c r="F1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="G1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="93"/>
-      <c r="I1" s="94" t="s">
+      <c r="H1" s="82"/>
+      <c r="I1" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="94" t="s">
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="96"/>
+      <c r="O1" s="85"/>
       <c r="P1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="97" t="s">
+      <c r="Q1" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="98"/>
-    </row>
-    <row r="2" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="186"/>
-      <c r="B2" s="186"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="167"/>
+      <c r="R1" s="87"/>
+    </row>
+    <row r="2" spans="1:18" ht="24" customHeight="1">
+      <c r="A2" s="198"/>
+      <c r="B2" s="198"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="176"/>
       <c r="F2" s="11"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="167"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="204"/>
+      <c r="K2" s="204"/>
+      <c r="L2" s="204"/>
+      <c r="M2" s="176"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="176"/>
       <c r="P2" s="20"/>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="189"/>
-    </row>
-    <row r="3" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="186"/>
-      <c r="B3" s="186"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="156"/>
+      <c r="Q2" s="205"/>
+      <c r="R2" s="206"/>
+    </row>
+    <row r="3" spans="1:18" ht="24" customHeight="1">
+      <c r="A3" s="198"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="165"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
-      <c r="L3" s="173"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="156"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="165"/>
       <c r="P3" s="21"/>
-      <c r="Q3" s="184"/>
-      <c r="R3" s="185"/>
-    </row>
-    <row r="4" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="186"/>
-      <c r="B4" s="186"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="156"/>
+      <c r="Q3" s="196"/>
+      <c r="R3" s="197"/>
+    </row>
+    <row r="4" spans="1:18" ht="24" customHeight="1">
+      <c r="A4" s="198"/>
+      <c r="B4" s="198"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="165"/>
       <c r="F4" s="14"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="173"/>
-      <c r="K4" s="173"/>
-      <c r="L4" s="173"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="155"/>
-      <c r="O4" s="156"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="185"/>
+      <c r="L4" s="185"/>
+      <c r="M4" s="165"/>
+      <c r="N4" s="164"/>
+      <c r="O4" s="165"/>
       <c r="P4" s="21"/>
-      <c r="Q4" s="184"/>
-      <c r="R4" s="185"/>
-    </row>
-    <row r="5" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="186"/>
-      <c r="B5" s="186"/>
-      <c r="C5" s="187"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="156"/>
+      <c r="Q4" s="196"/>
+      <c r="R4" s="197"/>
+    </row>
+    <row r="5" spans="1:18" ht="24" customHeight="1">
+      <c r="A5" s="198"/>
+      <c r="B5" s="198"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="165"/>
       <c r="F5" s="14"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="155"/>
-      <c r="J5" s="173"/>
-      <c r="K5" s="173"/>
-      <c r="L5" s="173"/>
-      <c r="M5" s="156"/>
-      <c r="N5" s="155"/>
-      <c r="O5" s="156"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="165"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="185"/>
+      <c r="K5" s="185"/>
+      <c r="L5" s="185"/>
+      <c r="M5" s="165"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="165"/>
       <c r="P5" s="21"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="185"/>
-    </row>
-    <row r="6" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="186"/>
-      <c r="B6" s="186"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="156"/>
+      <c r="Q5" s="196"/>
+      <c r="R5" s="197"/>
+    </row>
+    <row r="6" spans="1:18" ht="24" customHeight="1">
+      <c r="A6" s="198"/>
+      <c r="B6" s="198"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="165"/>
       <c r="F6" s="14"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="155"/>
-      <c r="J6" s="173"/>
-      <c r="K6" s="173"/>
-      <c r="L6" s="173"/>
-      <c r="M6" s="156"/>
-      <c r="N6" s="155"/>
-      <c r="O6" s="156"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="185"/>
+      <c r="K6" s="185"/>
+      <c r="L6" s="185"/>
+      <c r="M6" s="165"/>
+      <c r="N6" s="164"/>
+      <c r="O6" s="165"/>
       <c r="P6" s="21"/>
-      <c r="Q6" s="184"/>
-      <c r="R6" s="185"/>
-    </row>
-    <row r="7" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="186"/>
-      <c r="B7" s="186"/>
-      <c r="C7" s="187"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="156"/>
+      <c r="Q6" s="196"/>
+      <c r="R6" s="197"/>
+    </row>
+    <row r="7" spans="1:18" ht="24" customHeight="1">
+      <c r="A7" s="198"/>
+      <c r="B7" s="198"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="165"/>
       <c r="F7" s="14"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="173"/>
-      <c r="L7" s="173"/>
-      <c r="M7" s="156"/>
-      <c r="N7" s="155"/>
-      <c r="O7" s="156"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="185"/>
+      <c r="K7" s="185"/>
+      <c r="L7" s="185"/>
+      <c r="M7" s="165"/>
+      <c r="N7" s="164"/>
+      <c r="O7" s="165"/>
       <c r="P7" s="21"/>
-      <c r="Q7" s="184"/>
-      <c r="R7" s="185"/>
-    </row>
-    <row r="8" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="186"/>
-      <c r="B8" s="186"/>
-      <c r="C8" s="187"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="156"/>
+      <c r="Q7" s="196"/>
+      <c r="R7" s="197"/>
+    </row>
+    <row r="8" spans="1:18" ht="24" customHeight="1">
+      <c r="A8" s="198"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="165"/>
       <c r="F8" s="14"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="173"/>
-      <c r="K8" s="173"/>
-      <c r="L8" s="173"/>
-      <c r="M8" s="156"/>
-      <c r="N8" s="155"/>
-      <c r="O8" s="156"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="185"/>
+      <c r="K8" s="185"/>
+      <c r="L8" s="185"/>
+      <c r="M8" s="165"/>
+      <c r="N8" s="164"/>
+      <c r="O8" s="165"/>
       <c r="P8" s="21"/>
-      <c r="Q8" s="184"/>
-      <c r="R8" s="185"/>
-    </row>
-    <row r="9" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="186"/>
-      <c r="B9" s="186"/>
-      <c r="C9" s="187"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="156"/>
+      <c r="Q8" s="196"/>
+      <c r="R8" s="197"/>
+    </row>
+    <row r="9" spans="1:18" ht="24" customHeight="1">
+      <c r="A9" s="198"/>
+      <c r="B9" s="198"/>
+      <c r="C9" s="199"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="165"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="155"/>
-      <c r="J9" s="173"/>
-      <c r="K9" s="173"/>
-      <c r="L9" s="173"/>
-      <c r="M9" s="156"/>
-      <c r="N9" s="155"/>
-      <c r="O9" s="156"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="185"/>
+      <c r="K9" s="185"/>
+      <c r="L9" s="185"/>
+      <c r="M9" s="165"/>
+      <c r="N9" s="164"/>
+      <c r="O9" s="165"/>
       <c r="P9" s="21"/>
-      <c r="Q9" s="184"/>
-      <c r="R9" s="185"/>
-    </row>
-    <row r="10" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="186"/>
-      <c r="C10" s="187"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="156"/>
+      <c r="Q9" s="196"/>
+      <c r="R9" s="197"/>
+    </row>
+    <row r="10" spans="1:18" ht="24" customHeight="1">
+      <c r="A10" s="198"/>
+      <c r="B10" s="198"/>
+      <c r="C10" s="199"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="165"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="155"/>
-      <c r="J10" s="173"/>
-      <c r="K10" s="173"/>
-      <c r="L10" s="173"/>
-      <c r="M10" s="156"/>
-      <c r="N10" s="155"/>
-      <c r="O10" s="156"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="185"/>
+      <c r="K10" s="185"/>
+      <c r="L10" s="185"/>
+      <c r="M10" s="165"/>
+      <c r="N10" s="164"/>
+      <c r="O10" s="165"/>
       <c r="P10" s="21"/>
-      <c r="Q10" s="184"/>
-      <c r="R10" s="185"/>
-    </row>
-    <row r="11" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="186"/>
-      <c r="C11" s="187"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="156"/>
+      <c r="Q10" s="196"/>
+      <c r="R10" s="197"/>
+    </row>
+    <row r="11" spans="1:18" ht="24" customHeight="1">
+      <c r="A11" s="198"/>
+      <c r="B11" s="198"/>
+      <c r="C11" s="199"/>
+      <c r="D11" s="164"/>
+      <c r="E11" s="165"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="173"/>
-      <c r="K11" s="173"/>
-      <c r="L11" s="173"/>
-      <c r="M11" s="156"/>
-      <c r="N11" s="155"/>
-      <c r="O11" s="156"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="165"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="185"/>
+      <c r="K11" s="185"/>
+      <c r="L11" s="185"/>
+      <c r="M11" s="165"/>
+      <c r="N11" s="164"/>
+      <c r="O11" s="165"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="184"/>
-      <c r="R11" s="185"/>
-    </row>
-    <row r="12" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="186"/>
-      <c r="C12" s="187"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="156"/>
+      <c r="Q11" s="196"/>
+      <c r="R11" s="197"/>
+    </row>
+    <row r="12" spans="1:18" ht="24" customHeight="1">
+      <c r="A12" s="198"/>
+      <c r="B12" s="198"/>
+      <c r="C12" s="199"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="165"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="173"/>
-      <c r="K12" s="173"/>
-      <c r="L12" s="173"/>
-      <c r="M12" s="156"/>
-      <c r="N12" s="155"/>
-      <c r="O12" s="156"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="185"/>
+      <c r="K12" s="185"/>
+      <c r="L12" s="185"/>
+      <c r="M12" s="165"/>
+      <c r="N12" s="164"/>
+      <c r="O12" s="165"/>
       <c r="P12" s="21"/>
-      <c r="Q12" s="184"/>
-      <c r="R12" s="185"/>
-    </row>
-    <row r="13" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="186"/>
-      <c r="C13" s="187"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="156"/>
+      <c r="Q12" s="196"/>
+      <c r="R12" s="197"/>
+    </row>
+    <row r="13" spans="1:18" ht="24" customHeight="1">
+      <c r="A13" s="198"/>
+      <c r="B13" s="198"/>
+      <c r="C13" s="199"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="165"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="155"/>
-      <c r="J13" s="173"/>
-      <c r="K13" s="173"/>
-      <c r="L13" s="173"/>
-      <c r="M13" s="156"/>
-      <c r="N13" s="155"/>
-      <c r="O13" s="156"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="165"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="185"/>
+      <c r="K13" s="185"/>
+      <c r="L13" s="185"/>
+      <c r="M13" s="165"/>
+      <c r="N13" s="164"/>
+      <c r="O13" s="165"/>
       <c r="P13" s="21"/>
-      <c r="Q13" s="184"/>
-      <c r="R13" s="185"/>
-    </row>
-    <row r="14" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="156"/>
+      <c r="Q13" s="196"/>
+      <c r="R13" s="197"/>
+    </row>
+    <row r="14" spans="1:18" ht="24" customHeight="1">
+      <c r="A14" s="198"/>
+      <c r="B14" s="198"/>
+      <c r="C14" s="199"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="165"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="173"/>
-      <c r="K14" s="173"/>
-      <c r="L14" s="173"/>
-      <c r="M14" s="156"/>
-      <c r="N14" s="155"/>
-      <c r="O14" s="156"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="185"/>
+      <c r="K14" s="185"/>
+      <c r="L14" s="185"/>
+      <c r="M14" s="165"/>
+      <c r="N14" s="164"/>
+      <c r="O14" s="165"/>
       <c r="P14" s="21"/>
-      <c r="Q14" s="184"/>
-      <c r="R14" s="185"/>
-    </row>
-    <row r="15" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="156"/>
+      <c r="Q14" s="196"/>
+      <c r="R14" s="197"/>
+    </row>
+    <row r="15" spans="1:18" ht="24" customHeight="1">
+      <c r="A15" s="198"/>
+      <c r="B15" s="198"/>
+      <c r="C15" s="199"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="165"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="156"/>
-      <c r="I15" s="155"/>
-      <c r="J15" s="173"/>
-      <c r="K15" s="173"/>
-      <c r="L15" s="173"/>
-      <c r="M15" s="156"/>
-      <c r="N15" s="155"/>
-      <c r="O15" s="156"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="185"/>
+      <c r="K15" s="185"/>
+      <c r="L15" s="185"/>
+      <c r="M15" s="165"/>
+      <c r="N15" s="164"/>
+      <c r="O15" s="165"/>
       <c r="P15" s="21"/>
-      <c r="Q15" s="184"/>
-      <c r="R15" s="185"/>
-    </row>
-    <row r="16" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="191"/>
-      <c r="K16" s="191"/>
-      <c r="L16" s="191"/>
-      <c r="M16" s="158"/>
-      <c r="N16" s="157"/>
-      <c r="O16" s="158"/>
-      <c r="P16" s="193"/>
-      <c r="Q16" s="180"/>
-      <c r="R16" s="181"/>
-    </row>
-    <row r="17" spans="1:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
+      <c r="Q15" s="196"/>
+      <c r="R15" s="197"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.5" customHeight="1" thickBot="1">
+      <c r="A16" s="198"/>
+      <c r="B16" s="198"/>
+      <c r="C16" s="199"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="190"/>
+      <c r="G16" s="166"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="202"/>
+      <c r="K16" s="202"/>
+      <c r="L16" s="202"/>
+      <c r="M16" s="167"/>
+      <c r="N16" s="166"/>
+      <c r="O16" s="167"/>
+      <c r="P16" s="200"/>
+      <c r="Q16" s="192"/>
+      <c r="R16" s="193"/>
+    </row>
+    <row r="17" spans="1:18" ht="8.5" customHeight="1">
+      <c r="A17" s="238"/>
       <c r="B17" s="119" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="122"/>
-      <c r="D17" s="159"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="160"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="192"/>
-      <c r="K17" s="192"/>
-      <c r="L17" s="192"/>
-      <c r="M17" s="160"/>
-      <c r="N17" s="159"/>
-      <c r="O17" s="160"/>
-      <c r="P17" s="194"/>
-      <c r="Q17" s="182"/>
-      <c r="R17" s="183"/>
-    </row>
-    <row r="18" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
+      <c r="D17" s="168"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="191"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="168"/>
+      <c r="J17" s="203"/>
+      <c r="K17" s="203"/>
+      <c r="L17" s="203"/>
+      <c r="M17" s="169"/>
+      <c r="N17" s="168"/>
+      <c r="O17" s="169"/>
+      <c r="P17" s="201"/>
+      <c r="Q17" s="194"/>
+      <c r="R17" s="195"/>
+    </row>
+    <row r="18" spans="1:18" ht="24" customHeight="1">
+      <c r="A18" s="238"/>
       <c r="B18" s="120"/>
       <c r="C18" s="123"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="156"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="165"/>
       <c r="F18" s="14"/>
-      <c r="G18" s="155"/>
-      <c r="H18" s="156"/>
-      <c r="I18" s="155"/>
-      <c r="J18" s="173"/>
-      <c r="K18" s="173"/>
-      <c r="L18" s="173"/>
-      <c r="M18" s="156"/>
-      <c r="N18" s="155"/>
-      <c r="O18" s="156"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="164"/>
+      <c r="J18" s="185"/>
+      <c r="K18" s="185"/>
+      <c r="L18" s="185"/>
+      <c r="M18" s="165"/>
+      <c r="N18" s="164"/>
+      <c r="O18" s="165"/>
       <c r="P18" s="21"/>
-      <c r="Q18" s="184"/>
-      <c r="R18" s="185"/>
-    </row>
-    <row r="19" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
+      <c r="Q18" s="196"/>
+      <c r="R18" s="197"/>
+    </row>
+    <row r="19" spans="1:18" ht="24" customHeight="1">
+      <c r="A19" s="238"/>
       <c r="B19" s="120"/>
       <c r="C19" s="123"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="156"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="165"/>
       <c r="F19" s="14"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="173"/>
-      <c r="K19" s="173"/>
-      <c r="L19" s="173"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="155"/>
-      <c r="O19" s="156"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="165"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="185"/>
+      <c r="K19" s="185"/>
+      <c r="L19" s="185"/>
+      <c r="M19" s="165"/>
+      <c r="N19" s="164"/>
+      <c r="O19" s="165"/>
       <c r="P19" s="21"/>
-      <c r="Q19" s="184"/>
-      <c r="R19" s="185"/>
-    </row>
-    <row r="20" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
+      <c r="Q19" s="196"/>
+      <c r="R19" s="197"/>
+    </row>
+    <row r="20" spans="1:18" ht="24" customHeight="1">
+      <c r="A20" s="238"/>
       <c r="B20" s="120"/>
       <c r="C20" s="123"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="156"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="165"/>
       <c r="F20" s="14"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="155"/>
-      <c r="J20" s="173"/>
-      <c r="K20" s="173"/>
-      <c r="L20" s="173"/>
-      <c r="M20" s="156"/>
-      <c r="N20" s="155"/>
-      <c r="O20" s="156"/>
+      <c r="G20" s="164"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="164"/>
+      <c r="J20" s="185"/>
+      <c r="K20" s="185"/>
+      <c r="L20" s="185"/>
+      <c r="M20" s="165"/>
+      <c r="N20" s="164"/>
+      <c r="O20" s="165"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="184"/>
-      <c r="R20" s="185"/>
-    </row>
-    <row r="21" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+      <c r="Q20" s="196"/>
+      <c r="R20" s="197"/>
+    </row>
+    <row r="21" spans="1:18" ht="18.5" customHeight="1" thickBot="1">
+      <c r="A21" s="238"/>
       <c r="B21" s="121"/>
       <c r="C21" s="124"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="178"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="191"/>
-      <c r="K21" s="191"/>
-      <c r="L21" s="191"/>
-      <c r="M21" s="158"/>
-      <c r="N21" s="157"/>
-      <c r="O21" s="158"/>
-      <c r="P21" s="193"/>
-      <c r="Q21" s="180"/>
-      <c r="R21" s="181"/>
-    </row>
-    <row r="22" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="166"/>
+      <c r="H21" s="167"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="202"/>
+      <c r="K21" s="202"/>
+      <c r="L21" s="202"/>
+      <c r="M21" s="167"/>
+      <c r="N21" s="166"/>
+      <c r="O21" s="167"/>
+      <c r="P21" s="200"/>
+      <c r="Q21" s="192"/>
+      <c r="R21" s="193"/>
+    </row>
+    <row r="22" spans="1:18" ht="5.5" customHeight="1">
+      <c r="A22" s="238"/>
       <c r="B22" s="119" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="122"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="160"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="159"/>
-      <c r="J22" s="192"/>
-      <c r="K22" s="192"/>
-      <c r="L22" s="192"/>
-      <c r="M22" s="160"/>
-      <c r="N22" s="159"/>
-      <c r="O22" s="160"/>
-      <c r="P22" s="194"/>
-      <c r="Q22" s="182"/>
-      <c r="R22" s="183"/>
-    </row>
-    <row r="23" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="191"/>
+      <c r="G22" s="168"/>
+      <c r="H22" s="169"/>
+      <c r="I22" s="168"/>
+      <c r="J22" s="203"/>
+      <c r="K22" s="203"/>
+      <c r="L22" s="203"/>
+      <c r="M22" s="169"/>
+      <c r="N22" s="168"/>
+      <c r="O22" s="169"/>
+      <c r="P22" s="201"/>
+      <c r="Q22" s="194"/>
+      <c r="R22" s="195"/>
+    </row>
+    <row r="23" spans="1:18" ht="24" customHeight="1">
+      <c r="A23" s="238"/>
       <c r="B23" s="120"/>
       <c r="C23" s="123"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="156"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="165"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="155"/>
-      <c r="J23" s="173"/>
-      <c r="K23" s="173"/>
-      <c r="L23" s="173"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="155"/>
-      <c r="O23" s="156"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="164"/>
+      <c r="J23" s="185"/>
+      <c r="K23" s="185"/>
+      <c r="L23" s="185"/>
+      <c r="M23" s="165"/>
+      <c r="N23" s="164"/>
+      <c r="O23" s="165"/>
       <c r="P23" s="21"/>
-      <c r="Q23" s="184"/>
-      <c r="R23" s="185"/>
-    </row>
-    <row r="24" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
+      <c r="Q23" s="196"/>
+      <c r="R23" s="197"/>
+    </row>
+    <row r="24" spans="1:18" ht="24" customHeight="1">
+      <c r="A24" s="238"/>
       <c r="B24" s="120"/>
       <c r="C24" s="123"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="156"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="165"/>
       <c r="F24" s="14"/>
-      <c r="G24" s="155"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="155"/>
-      <c r="J24" s="173"/>
-      <c r="K24" s="173"/>
-      <c r="L24" s="173"/>
-      <c r="M24" s="156"/>
-      <c r="N24" s="155"/>
-      <c r="O24" s="156"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="185"/>
+      <c r="K24" s="185"/>
+      <c r="L24" s="185"/>
+      <c r="M24" s="165"/>
+      <c r="N24" s="164"/>
+      <c r="O24" s="165"/>
       <c r="P24" s="21"/>
-      <c r="Q24" s="184"/>
-      <c r="R24" s="185"/>
-    </row>
-    <row r="25" spans="1:18" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
+      <c r="Q24" s="196"/>
+      <c r="R24" s="197"/>
+    </row>
+    <row r="25" spans="1:18" ht="17" customHeight="1" thickBot="1">
+      <c r="A25" s="238"/>
       <c r="B25" s="121"/>
       <c r="C25" s="124"/>
-      <c r="D25" s="157"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="157"/>
-      <c r="J25" s="191"/>
-      <c r="K25" s="191"/>
-      <c r="L25" s="191"/>
-      <c r="M25" s="158"/>
-      <c r="N25" s="157"/>
-      <c r="O25" s="158"/>
-      <c r="P25" s="193"/>
-      <c r="Q25" s="180"/>
-      <c r="R25" s="181"/>
-    </row>
-    <row r="26" spans="1:18" ht="5.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
+      <c r="D25" s="166"/>
+      <c r="E25" s="167"/>
+      <c r="F25" s="190"/>
+      <c r="G25" s="166"/>
+      <c r="H25" s="167"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="202"/>
+      <c r="K25" s="202"/>
+      <c r="L25" s="202"/>
+      <c r="M25" s="167"/>
+      <c r="N25" s="166"/>
+      <c r="O25" s="167"/>
+      <c r="P25" s="200"/>
+      <c r="Q25" s="192"/>
+      <c r="R25" s="193"/>
+    </row>
+    <row r="26" spans="1:18" ht="7" customHeight="1">
+      <c r="A26" s="238"/>
       <c r="B26" s="119" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="122"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="159"/>
-      <c r="J26" s="192"/>
-      <c r="K26" s="192"/>
-      <c r="L26" s="192"/>
-      <c r="M26" s="160"/>
-      <c r="N26" s="159"/>
-      <c r="O26" s="160"/>
-      <c r="P26" s="194"/>
-      <c r="Q26" s="182"/>
-      <c r="R26" s="183"/>
-    </row>
-    <row r="27" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="169"/>
+      <c r="F26" s="191"/>
+      <c r="G26" s="168"/>
+      <c r="H26" s="169"/>
+      <c r="I26" s="168"/>
+      <c r="J26" s="203"/>
+      <c r="K26" s="203"/>
+      <c r="L26" s="203"/>
+      <c r="M26" s="169"/>
+      <c r="N26" s="168"/>
+      <c r="O26" s="169"/>
+      <c r="P26" s="201"/>
+      <c r="Q26" s="194"/>
+      <c r="R26" s="195"/>
+    </row>
+    <row r="27" spans="1:18" ht="24" customHeight="1">
+      <c r="A27" s="238"/>
       <c r="B27" s="120"/>
       <c r="C27" s="123"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="156"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="165"/>
       <c r="F27" s="14"/>
-      <c r="G27" s="155"/>
-      <c r="H27" s="156"/>
-      <c r="I27" s="155"/>
-      <c r="J27" s="173"/>
-      <c r="K27" s="173"/>
-      <c r="L27" s="173"/>
-      <c r="M27" s="156"/>
-      <c r="N27" s="155"/>
-      <c r="O27" s="156"/>
+      <c r="G27" s="164"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="164"/>
+      <c r="J27" s="185"/>
+      <c r="K27" s="185"/>
+      <c r="L27" s="185"/>
+      <c r="M27" s="165"/>
+      <c r="N27" s="164"/>
+      <c r="O27" s="165"/>
       <c r="P27" s="21"/>
-      <c r="Q27" s="184"/>
-      <c r="R27" s="185"/>
-    </row>
-    <row r="28" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
+      <c r="Q27" s="196"/>
+      <c r="R27" s="197"/>
+    </row>
+    <row r="28" spans="1:18" ht="24" customHeight="1">
+      <c r="A28" s="238"/>
       <c r="B28" s="120"/>
       <c r="C28" s="123"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="156"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="165"/>
       <c r="F28" s="14"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="173"/>
-      <c r="K28" s="173"/>
-      <c r="L28" s="173"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="155"/>
-      <c r="O28" s="156"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="185"/>
+      <c r="K28" s="185"/>
+      <c r="L28" s="185"/>
+      <c r="M28" s="165"/>
+      <c r="N28" s="164"/>
+      <c r="O28" s="165"/>
       <c r="P28" s="21"/>
-      <c r="Q28" s="184"/>
-      <c r="R28" s="185"/>
-    </row>
-    <row r="29" spans="1:18" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
+      <c r="Q28" s="196"/>
+      <c r="R28" s="197"/>
+    </row>
+    <row r="29" spans="1:18" ht="16" customHeight="1" thickBot="1">
+      <c r="A29" s="238"/>
       <c r="B29" s="121"/>
       <c r="C29" s="124"/>
-      <c r="D29" s="157"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="178"/>
-      <c r="G29" s="157"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="191"/>
-      <c r="K29" s="191"/>
-      <c r="L29" s="191"/>
-      <c r="M29" s="158"/>
-      <c r="N29" s="157"/>
-      <c r="O29" s="158"/>
-      <c r="P29" s="193"/>
-      <c r="Q29" s="180"/>
-      <c r="R29" s="181"/>
-    </row>
-    <row r="30" spans="1:18" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
+      <c r="D29" s="166"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="190"/>
+      <c r="G29" s="166"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="166"/>
+      <c r="J29" s="202"/>
+      <c r="K29" s="202"/>
+      <c r="L29" s="202"/>
+      <c r="M29" s="167"/>
+      <c r="N29" s="166"/>
+      <c r="O29" s="167"/>
+      <c r="P29" s="200"/>
+      <c r="Q29" s="192"/>
+      <c r="R29" s="193"/>
+    </row>
+    <row r="30" spans="1:18" ht="8" customHeight="1">
+      <c r="A30" s="238"/>
       <c r="B30" s="119" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="122"/>
-      <c r="D30" s="159"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="159"/>
-      <c r="J30" s="192"/>
-      <c r="K30" s="192"/>
-      <c r="L30" s="192"/>
-      <c r="M30" s="160"/>
-      <c r="N30" s="159"/>
-      <c r="O30" s="160"/>
-      <c r="P30" s="194"/>
-      <c r="Q30" s="182"/>
-      <c r="R30" s="183"/>
-    </row>
-    <row r="31" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="191"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="169"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="203"/>
+      <c r="K30" s="203"/>
+      <c r="L30" s="203"/>
+      <c r="M30" s="169"/>
+      <c r="N30" s="168"/>
+      <c r="O30" s="169"/>
+      <c r="P30" s="201"/>
+      <c r="Q30" s="194"/>
+      <c r="R30" s="195"/>
+    </row>
+    <row r="31" spans="1:18" ht="24" customHeight="1">
+      <c r="A31" s="238"/>
       <c r="B31" s="120"/>
       <c r="C31" s="123"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="156"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="165"/>
       <c r="F31" s="14"/>
-      <c r="G31" s="155"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="155"/>
-      <c r="J31" s="173"/>
-      <c r="K31" s="173"/>
-      <c r="L31" s="173"/>
-      <c r="M31" s="156"/>
-      <c r="N31" s="155"/>
-      <c r="O31" s="156"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="165"/>
+      <c r="I31" s="164"/>
+      <c r="J31" s="185"/>
+      <c r="K31" s="185"/>
+      <c r="L31" s="185"/>
+      <c r="M31" s="165"/>
+      <c r="N31" s="164"/>
+      <c r="O31" s="165"/>
       <c r="P31" s="21"/>
-      <c r="Q31" s="184"/>
-      <c r="R31" s="185"/>
-    </row>
-    <row r="32" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
+      <c r="Q31" s="196"/>
+      <c r="R31" s="197"/>
+    </row>
+    <row r="32" spans="1:18" ht="24" customHeight="1">
+      <c r="A32" s="238"/>
       <c r="B32" s="120"/>
       <c r="C32" s="123"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="156"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="165"/>
       <c r="F32" s="14"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="156"/>
-      <c r="I32" s="155"/>
-      <c r="J32" s="173"/>
-      <c r="K32" s="173"/>
-      <c r="L32" s="173"/>
-      <c r="M32" s="156"/>
-      <c r="N32" s="155"/>
-      <c r="O32" s="156"/>
+      <c r="G32" s="164"/>
+      <c r="H32" s="165"/>
+      <c r="I32" s="164"/>
+      <c r="J32" s="185"/>
+      <c r="K32" s="185"/>
+      <c r="L32" s="185"/>
+      <c r="M32" s="165"/>
+      <c r="N32" s="164"/>
+      <c r="O32" s="165"/>
       <c r="P32" s="21"/>
-      <c r="Q32" s="184"/>
-      <c r="R32" s="185"/>
-    </row>
-    <row r="33" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
+      <c r="Q32" s="196"/>
+      <c r="R32" s="197"/>
+    </row>
+    <row r="33" spans="1:18" ht="24" customHeight="1">
+      <c r="A33" s="238"/>
       <c r="B33" s="120"/>
       <c r="C33" s="123"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="156"/>
+      <c r="D33" s="164"/>
+      <c r="E33" s="165"/>
       <c r="F33" s="14"/>
-      <c r="G33" s="155"/>
-      <c r="H33" s="156"/>
-      <c r="I33" s="155"/>
-      <c r="J33" s="173"/>
-      <c r="K33" s="173"/>
-      <c r="L33" s="173"/>
-      <c r="M33" s="156"/>
-      <c r="N33" s="155"/>
-      <c r="O33" s="156"/>
+      <c r="G33" s="164"/>
+      <c r="H33" s="165"/>
+      <c r="I33" s="164"/>
+      <c r="J33" s="185"/>
+      <c r="K33" s="185"/>
+      <c r="L33" s="185"/>
+      <c r="M33" s="165"/>
+      <c r="N33" s="164"/>
+      <c r="O33" s="165"/>
       <c r="P33" s="21"/>
-      <c r="Q33" s="184"/>
-      <c r="R33" s="185"/>
-    </row>
-    <row r="34" spans="1:18" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
+      <c r="Q33" s="196"/>
+      <c r="R33" s="197"/>
+    </row>
+    <row r="34" spans="1:18" ht="19" customHeight="1" thickBot="1">
+      <c r="A34" s="238"/>
       <c r="B34" s="121"/>
       <c r="C34" s="124"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="178"/>
-      <c r="G34" s="157"/>
-      <c r="H34" s="158"/>
-      <c r="I34" s="157"/>
-      <c r="J34" s="191"/>
-      <c r="K34" s="191"/>
-      <c r="L34" s="191"/>
-      <c r="M34" s="158"/>
-      <c r="N34" s="157"/>
-      <c r="O34" s="158"/>
-      <c r="P34" s="193"/>
-      <c r="Q34" s="180"/>
-      <c r="R34" s="181"/>
-    </row>
-    <row r="35" spans="1:18" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
+      <c r="D34" s="166"/>
+      <c r="E34" s="167"/>
+      <c r="F34" s="190"/>
+      <c r="G34" s="166"/>
+      <c r="H34" s="167"/>
+      <c r="I34" s="166"/>
+      <c r="J34" s="202"/>
+      <c r="K34" s="202"/>
+      <c r="L34" s="202"/>
+      <c r="M34" s="167"/>
+      <c r="N34" s="166"/>
+      <c r="O34" s="167"/>
+      <c r="P34" s="200"/>
+      <c r="Q34" s="192"/>
+      <c r="R34" s="193"/>
+    </row>
+    <row r="35" spans="1:18" ht="5" customHeight="1">
+      <c r="A35" s="238"/>
       <c r="B35" s="119" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="122"/>
-      <c r="D35" s="159"/>
-      <c r="E35" s="160"/>
-      <c r="F35" s="179"/>
-      <c r="G35" s="159"/>
-      <c r="H35" s="160"/>
-      <c r="I35" s="159"/>
-      <c r="J35" s="192"/>
-      <c r="K35" s="192"/>
-      <c r="L35" s="192"/>
-      <c r="M35" s="160"/>
-      <c r="N35" s="159"/>
-      <c r="O35" s="160"/>
-      <c r="P35" s="194"/>
-      <c r="Q35" s="182"/>
-      <c r="R35" s="183"/>
-    </row>
-    <row r="36" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
+      <c r="D35" s="168"/>
+      <c r="E35" s="169"/>
+      <c r="F35" s="191"/>
+      <c r="G35" s="168"/>
+      <c r="H35" s="169"/>
+      <c r="I35" s="168"/>
+      <c r="J35" s="203"/>
+      <c r="K35" s="203"/>
+      <c r="L35" s="203"/>
+      <c r="M35" s="169"/>
+      <c r="N35" s="168"/>
+      <c r="O35" s="169"/>
+      <c r="P35" s="201"/>
+      <c r="Q35" s="194"/>
+      <c r="R35" s="195"/>
+    </row>
+    <row r="36" spans="1:18" ht="24" customHeight="1" thickBot="1">
+      <c r="A36" s="238"/>
       <c r="B36" s="120"/>
       <c r="C36" s="123"/>
-      <c r="D36" s="155"/>
-      <c r="E36" s="156"/>
+      <c r="D36" s="164"/>
+      <c r="E36" s="165"/>
       <c r="F36" s="14"/>
-      <c r="G36" s="155"/>
-      <c r="H36" s="156"/>
-      <c r="I36" s="155"/>
-      <c r="J36" s="173"/>
-      <c r="K36" s="173"/>
-      <c r="L36" s="173"/>
-      <c r="M36" s="156"/>
-      <c r="N36" s="155"/>
-      <c r="O36" s="156"/>
+      <c r="G36" s="164"/>
+      <c r="H36" s="165"/>
+      <c r="I36" s="164"/>
+      <c r="J36" s="185"/>
+      <c r="K36" s="185"/>
+      <c r="L36" s="185"/>
+      <c r="M36" s="165"/>
+      <c r="N36" s="164"/>
+      <c r="O36" s="165"/>
       <c r="P36" s="22"/>
-      <c r="Q36" s="168"/>
-      <c r="R36" s="169"/>
-    </row>
-    <row r="37" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
+      <c r="Q36" s="177"/>
+      <c r="R36" s="178"/>
+    </row>
+    <row r="37" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A37" s="238"/>
       <c r="B37" s="120"/>
       <c r="C37" s="123"/>
       <c r="D37" s="16"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="69"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="151"/>
+      <c r="G37" s="152"/>
       <c r="H37" s="127"/>
       <c r="I37" s="127"/>
       <c r="J37" s="16"/>
       <c r="K37" s="16"/>
-      <c r="L37" s="139"/>
-      <c r="M37" s="140"/>
-      <c r="N37" s="140"/>
-      <c r="O37" s="140"/>
-      <c r="P37" s="140"/>
-      <c r="Q37" s="148"/>
-      <c r="R37" s="171" t="s">
+      <c r="L37" s="141"/>
+      <c r="M37" s="142"/>
+      <c r="N37" s="142"/>
+      <c r="O37" s="142"/>
+      <c r="P37" s="142"/>
+      <c r="Q37" s="143"/>
+      <c r="R37" s="183" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="5.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
+    <row r="38" spans="1:18" ht="5.75" customHeight="1" thickBot="1">
+      <c r="A38" s="238"/>
       <c r="B38" s="120"/>
       <c r="C38" s="123"/>
       <c r="D38" s="134"/>
-      <c r="E38" s="163"/>
-      <c r="F38" s="164"/>
-      <c r="G38" s="165"/>
+      <c r="E38" s="172"/>
+      <c r="F38" s="173"/>
+      <c r="G38" s="174"/>
       <c r="H38" s="134"/>
       <c r="I38" s="134"/>
       <c r="J38" s="134"/>
       <c r="K38" s="134"/>
-      <c r="L38" s="141"/>
-      <c r="M38" s="142"/>
-      <c r="N38" s="143"/>
-      <c r="O38" s="143"/>
-      <c r="P38" s="143"/>
-      <c r="Q38" s="170"/>
-      <c r="R38" s="172"/>
-    </row>
-    <row r="39" spans="1:18" ht="8.4499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
+      <c r="L38" s="179"/>
+      <c r="M38" s="180"/>
+      <c r="N38" s="181"/>
+      <c r="O38" s="181"/>
+      <c r="P38" s="181"/>
+      <c r="Q38" s="182"/>
+      <c r="R38" s="184"/>
+    </row>
+    <row r="39" spans="1:18" ht="8.5" customHeight="1" thickBot="1">
+      <c r="A39" s="238"/>
       <c r="B39" s="120"/>
       <c r="C39" s="123"/>
-      <c r="D39" s="175"/>
+      <c r="D39" s="187"/>
       <c r="E39" s="144"/>
       <c r="F39" s="145"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="174"/>
-      <c r="I39" s="174"/>
-      <c r="J39" s="174"/>
-      <c r="K39" s="175"/>
-      <c r="L39" s="141"/>
-      <c r="M39" s="142"/>
-      <c r="N39" s="143"/>
-      <c r="O39" s="143"/>
-      <c r="P39" s="143"/>
-      <c r="Q39" s="170"/>
-      <c r="R39" s="176"/>
-    </row>
-    <row r="40" spans="1:18" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
+      <c r="G39" s="146"/>
+      <c r="H39" s="186"/>
+      <c r="I39" s="186"/>
+      <c r="J39" s="186"/>
+      <c r="K39" s="187"/>
+      <c r="L39" s="179"/>
+      <c r="M39" s="180"/>
+      <c r="N39" s="181"/>
+      <c r="O39" s="181"/>
+      <c r="P39" s="181"/>
+      <c r="Q39" s="182"/>
+      <c r="R39" s="188"/>
+    </row>
+    <row r="40" spans="1:18" ht="14" customHeight="1" thickBot="1">
+      <c r="A40" s="238"/>
       <c r="B40" s="121"/>
       <c r="C40" s="124"/>
       <c r="D40" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="62" t="s">
+      <c r="E40" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="F40" s="63"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="62" t="s">
+      <c r="F40" s="94"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="I40" s="64"/>
+      <c r="I40" s="95"/>
       <c r="J40" s="17" t="s">
         <v>14</v>
       </c>
@@ -4005,10 +4058,10 @@
       <c r="N40" s="145"/>
       <c r="O40" s="145"/>
       <c r="P40" s="145"/>
-      <c r="Q40" s="149"/>
-      <c r="R40" s="177"/>
-    </row>
-    <row r="41" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q40" s="146"/>
+      <c r="R40" s="189"/>
+    </row>
+    <row r="41" spans="1:18" ht="13" customHeight="1">
       <c r="A41" s="28"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -4033,7 +4086,7 @@
       <c r="R41" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="189">
     <mergeCell ref="P29:P30"/>
     <mergeCell ref="I34:M35"/>
     <mergeCell ref="N34:O35"/>
@@ -4074,6 +4127,11 @@
     <mergeCell ref="I7:M7"/>
     <mergeCell ref="I8:M8"/>
     <mergeCell ref="I9:M9"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="I2:M2"/>
@@ -4083,6 +4141,9 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q4:R4"/>
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="I10:M10"/>
     <mergeCell ref="I11:M11"/>
@@ -4107,23 +4168,15 @@
     <mergeCell ref="P25:P26"/>
     <mergeCell ref="I29:M30"/>
     <mergeCell ref="N29:O30"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q4:R4"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="A1:A9"/>
-    <mergeCell ref="B1:B6"/>
-    <mergeCell ref="C1:C6"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="C7:C13"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G4:H4"/>
@@ -4134,11 +4187,6 @@
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="I12:M12"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="Q16:R17"/>
@@ -4153,6 +4201,8 @@
     <mergeCell ref="Q21:R22"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A1:C16"/>
+    <mergeCell ref="A17:A40"/>
     <mergeCell ref="Q25:R26"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="C26:C29"/>
@@ -4237,903 +4287,903 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB962051-EE6F-4F2C-8396-03336304EFB8}">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L41" sqref="L1:L1048576"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="3.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="0.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="3.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="1.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="3.5703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.54296875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="3.36328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="3.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="0.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.54296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.453125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="5.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.08984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.08984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.54296875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.08984375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.90625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.90625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="3.6328125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.90625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.54296875" style="1" customWidth="1"/>
     <col min="20" max="20" width="1" style="1" customWidth="1"/>
-    <col min="21" max="21" width="5.140625" style="1" customWidth="1"/>
-    <col min="22" max="23" width="8.85546875" style="1"/>
-    <col min="24" max="24" width="8.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="8.85546875" style="1"/>
-    <col min="26" max="27" width="8.85546875" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.85546875" style="1"/>
+    <col min="21" max="21" width="5.08984375" style="1" customWidth="1"/>
+    <col min="22" max="23" width="8.90625" style="1"/>
+    <col min="24" max="24" width="8.90625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="8.90625" style="1"/>
+    <col min="26" max="27" width="8.90625" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="5" customFormat="1" ht="29.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="186"/>
-      <c r="B1" s="186"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="214" t="s">
+    <row r="1" spans="1:21" s="5" customFormat="1" ht="29.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A1" s="198"/>
+      <c r="B1" s="198"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="215" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
-      <c r="L1" s="215"/>
-      <c r="M1" s="215"/>
-      <c r="N1" s="215"/>
-      <c r="O1" s="215"/>
-      <c r="P1" s="215"/>
-      <c r="Q1" s="215"/>
-      <c r="R1" s="215"/>
-      <c r="S1" s="215"/>
-      <c r="T1" s="215"/>
-      <c r="U1" s="216"/>
-    </row>
-    <row r="2" spans="1:21" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="186"/>
-      <c r="B2" s="186"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="217" t="s">
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="216"/>
+      <c r="L1" s="216"/>
+      <c r="M1" s="216"/>
+      <c r="N1" s="216"/>
+      <c r="O1" s="216"/>
+      <c r="P1" s="216"/>
+      <c r="Q1" s="216"/>
+      <c r="R1" s="216"/>
+      <c r="S1" s="216"/>
+      <c r="T1" s="216"/>
+      <c r="U1" s="217"/>
+    </row>
+    <row r="2" spans="1:21" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1">
+      <c r="A2" s="198"/>
+      <c r="B2" s="198"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="218" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="218"/>
-      <c r="F2" s="209" t="s">
+      <c r="E2" s="219"/>
+      <c r="F2" s="222" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="222" t="s">
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+      <c r="I2" s="223"/>
+      <c r="J2" s="223"/>
+      <c r="K2" s="223"/>
+      <c r="L2" s="223"/>
+      <c r="M2" s="223"/>
+      <c r="N2" s="224"/>
+      <c r="O2" s="225" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="224" t="s">
+      <c r="P2" s="227" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="217" t="s">
+      <c r="Q2" s="218" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="218"/>
-      <c r="S2" s="224" t="s">
+      <c r="R2" s="219"/>
+      <c r="S2" s="227" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="205" t="s">
+      <c r="T2" s="229" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="206"/>
-    </row>
-    <row r="3" spans="1:21" s="5" customFormat="1" ht="47.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="186"/>
-      <c r="B3" s="186"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="219"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="209" t="s">
+      <c r="U2" s="230"/>
+    </row>
+    <row r="3" spans="1:21" s="5" customFormat="1" ht="47" customHeight="1" thickBot="1">
+      <c r="A3" s="198"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="220"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="222" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="210"/>
-      <c r="H3" s="211" t="s">
+      <c r="G3" s="224"/>
+      <c r="H3" s="233" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="212"/>
-      <c r="J3" s="211" t="s">
+      <c r="I3" s="234"/>
+      <c r="J3" s="233" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="213"/>
-      <c r="L3" s="212"/>
-      <c r="M3" s="209" t="s">
+      <c r="K3" s="235"/>
+      <c r="L3" s="234"/>
+      <c r="M3" s="222" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="210"/>
-      <c r="O3" s="223"/>
-      <c r="P3" s="225"/>
-      <c r="Q3" s="219"/>
-      <c r="R3" s="220"/>
-      <c r="S3" s="225"/>
-      <c r="T3" s="207"/>
-      <c r="U3" s="208"/>
-    </row>
-    <row r="4" spans="1:21" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="186"/>
-      <c r="B4" s="186"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="166"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="166"/>
-      <c r="K4" s="190"/>
-      <c r="L4" s="167"/>
-      <c r="M4" s="166"/>
-      <c r="N4" s="167"/>
+      <c r="N3" s="224"/>
+      <c r="O3" s="226"/>
+      <c r="P3" s="228"/>
+      <c r="Q3" s="220"/>
+      <c r="R3" s="221"/>
+      <c r="S3" s="228"/>
+      <c r="T3" s="231"/>
+      <c r="U3" s="232"/>
+    </row>
+    <row r="4" spans="1:21" ht="23.5" customHeight="1">
+      <c r="A4" s="198"/>
+      <c r="B4" s="198"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="176"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="176"/>
+      <c r="J4" s="175"/>
+      <c r="K4" s="204"/>
+      <c r="L4" s="176"/>
+      <c r="M4" s="175"/>
+      <c r="N4" s="176"/>
       <c r="O4" s="47"/>
       <c r="P4" s="10"/>
-      <c r="Q4" s="203"/>
-      <c r="R4" s="204"/>
+      <c r="Q4" s="236"/>
+      <c r="R4" s="237"/>
       <c r="S4" s="12"/>
-      <c r="T4" s="188"/>
-      <c r="U4" s="189"/>
-    </row>
-    <row r="5" spans="1:21" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="186"/>
-      <c r="B5" s="186"/>
-      <c r="C5" s="187"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="155"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="155"/>
-      <c r="K5" s="173"/>
-      <c r="L5" s="156"/>
-      <c r="M5" s="155"/>
-      <c r="N5" s="156"/>
+      <c r="T4" s="205"/>
+      <c r="U4" s="206"/>
+    </row>
+    <row r="5" spans="1:21" ht="23.5" customHeight="1">
+      <c r="A5" s="198"/>
+      <c r="B5" s="198"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="164"/>
+      <c r="K5" s="185"/>
+      <c r="L5" s="165"/>
+      <c r="M5" s="164"/>
+      <c r="N5" s="165"/>
       <c r="O5" s="26"/>
       <c r="P5" s="13"/>
-      <c r="Q5" s="195"/>
-      <c r="R5" s="196"/>
+      <c r="Q5" s="213"/>
+      <c r="R5" s="214"/>
       <c r="S5" s="15"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="185"/>
-    </row>
-    <row r="6" spans="1:21" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="186"/>
-      <c r="B6" s="186"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="173"/>
-      <c r="L6" s="156"/>
-      <c r="M6" s="155"/>
-      <c r="N6" s="156"/>
+      <c r="T5" s="196"/>
+      <c r="U5" s="197"/>
+    </row>
+    <row r="6" spans="1:21" ht="23.5" customHeight="1">
+      <c r="A6" s="198"/>
+      <c r="B6" s="198"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="164"/>
+      <c r="K6" s="185"/>
+      <c r="L6" s="165"/>
+      <c r="M6" s="164"/>
+      <c r="N6" s="165"/>
       <c r="O6" s="26"/>
       <c r="P6" s="13"/>
-      <c r="Q6" s="195"/>
-      <c r="R6" s="196"/>
+      <c r="Q6" s="213"/>
+      <c r="R6" s="214"/>
       <c r="S6" s="15"/>
-      <c r="T6" s="184"/>
-      <c r="U6" s="185"/>
-    </row>
-    <row r="7" spans="1:21" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="186"/>
-      <c r="B7" s="186"/>
-      <c r="C7" s="187"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="173"/>
-      <c r="L7" s="156"/>
-      <c r="M7" s="155"/>
-      <c r="N7" s="156"/>
+      <c r="T6" s="196"/>
+      <c r="U6" s="197"/>
+    </row>
+    <row r="7" spans="1:21" ht="23.5" customHeight="1">
+      <c r="A7" s="198"/>
+      <c r="B7" s="198"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="164"/>
+      <c r="K7" s="185"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="164"/>
+      <c r="N7" s="165"/>
       <c r="O7" s="26"/>
       <c r="P7" s="13"/>
-      <c r="Q7" s="195"/>
-      <c r="R7" s="196"/>
+      <c r="Q7" s="213"/>
+      <c r="R7" s="214"/>
       <c r="S7" s="15"/>
-      <c r="T7" s="184"/>
-      <c r="U7" s="185"/>
-    </row>
-    <row r="8" spans="1:21" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="186"/>
-      <c r="B8" s="186"/>
-      <c r="C8" s="187"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="173"/>
-      <c r="L8" s="156"/>
-      <c r="M8" s="155"/>
-      <c r="N8" s="156"/>
+      <c r="T7" s="196"/>
+      <c r="U7" s="197"/>
+    </row>
+    <row r="8" spans="1:21" ht="23.5" customHeight="1">
+      <c r="A8" s="198"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="185"/>
+      <c r="L8" s="165"/>
+      <c r="M8" s="164"/>
+      <c r="N8" s="165"/>
       <c r="O8" s="26"/>
       <c r="P8" s="13"/>
-      <c r="Q8" s="195"/>
-      <c r="R8" s="196"/>
+      <c r="Q8" s="213"/>
+      <c r="R8" s="214"/>
       <c r="S8" s="15"/>
-      <c r="T8" s="184"/>
-      <c r="U8" s="185"/>
-    </row>
-    <row r="9" spans="1:21" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="186"/>
-      <c r="B9" s="186"/>
-      <c r="C9" s="187"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="155"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="155"/>
-      <c r="K9" s="173"/>
-      <c r="L9" s="156"/>
-      <c r="M9" s="155"/>
-      <c r="N9" s="156"/>
+      <c r="T8" s="196"/>
+      <c r="U8" s="197"/>
+    </row>
+    <row r="9" spans="1:21" ht="23.5" customHeight="1">
+      <c r="A9" s="198"/>
+      <c r="B9" s="198"/>
+      <c r="C9" s="199"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="185"/>
+      <c r="L9" s="165"/>
+      <c r="M9" s="164"/>
+      <c r="N9" s="165"/>
       <c r="O9" s="26"/>
       <c r="P9" s="13"/>
-      <c r="Q9" s="195"/>
-      <c r="R9" s="196"/>
+      <c r="Q9" s="213"/>
+      <c r="R9" s="214"/>
       <c r="S9" s="15"/>
-      <c r="T9" s="184"/>
-      <c r="U9" s="185"/>
-    </row>
-    <row r="10" spans="1:21" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T9" s="196"/>
+      <c r="U9" s="197"/>
+    </row>
+    <row r="10" spans="1:21" ht="23.5" customHeight="1">
       <c r="A10" s="18"/>
-      <c r="B10" s="186"/>
-      <c r="C10" s="187"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="155"/>
-      <c r="K10" s="173"/>
-      <c r="L10" s="156"/>
-      <c r="M10" s="155"/>
-      <c r="N10" s="156"/>
+      <c r="B10" s="198"/>
+      <c r="C10" s="199"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="185"/>
+      <c r="L10" s="165"/>
+      <c r="M10" s="164"/>
+      <c r="N10" s="165"/>
       <c r="O10" s="26"/>
       <c r="P10" s="13"/>
-      <c r="Q10" s="195"/>
-      <c r="R10" s="196"/>
+      <c r="Q10" s="213"/>
+      <c r="R10" s="214"/>
       <c r="S10" s="15"/>
-      <c r="T10" s="184"/>
-      <c r="U10" s="185"/>
-    </row>
-    <row r="11" spans="1:21" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T10" s="196"/>
+      <c r="U10" s="197"/>
+    </row>
+    <row r="11" spans="1:21" ht="23.5" customHeight="1">
       <c r="A11" s="18"/>
-      <c r="B11" s="186"/>
-      <c r="C11" s="187"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="155"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="155"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="155"/>
-      <c r="K11" s="173"/>
-      <c r="L11" s="156"/>
-      <c r="M11" s="155"/>
-      <c r="N11" s="156"/>
+      <c r="B11" s="198"/>
+      <c r="C11" s="199"/>
+      <c r="D11" s="164"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="164"/>
+      <c r="I11" s="165"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="185"/>
+      <c r="L11" s="165"/>
+      <c r="M11" s="164"/>
+      <c r="N11" s="165"/>
       <c r="O11" s="26"/>
       <c r="P11" s="13"/>
-      <c r="Q11" s="195"/>
-      <c r="R11" s="196"/>
+      <c r="Q11" s="213"/>
+      <c r="R11" s="214"/>
       <c r="S11" s="15"/>
-      <c r="T11" s="184"/>
-      <c r="U11" s="185"/>
-    </row>
-    <row r="12" spans="1:21" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T11" s="196"/>
+      <c r="U11" s="197"/>
+    </row>
+    <row r="12" spans="1:21" ht="23.5" customHeight="1">
       <c r="A12" s="18"/>
-      <c r="B12" s="186"/>
-      <c r="C12" s="187"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="156"/>
-      <c r="J12" s="155"/>
-      <c r="K12" s="173"/>
-      <c r="L12" s="156"/>
-      <c r="M12" s="155"/>
-      <c r="N12" s="156"/>
+      <c r="B12" s="198"/>
+      <c r="C12" s="199"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="185"/>
+      <c r="L12" s="165"/>
+      <c r="M12" s="164"/>
+      <c r="N12" s="165"/>
       <c r="O12" s="26"/>
       <c r="P12" s="13"/>
-      <c r="Q12" s="195"/>
-      <c r="R12" s="196"/>
+      <c r="Q12" s="213"/>
+      <c r="R12" s="214"/>
       <c r="S12" s="15"/>
-      <c r="T12" s="184"/>
-      <c r="U12" s="185"/>
-    </row>
-    <row r="13" spans="1:21" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T12" s="196"/>
+      <c r="U12" s="197"/>
+    </row>
+    <row r="13" spans="1:21" ht="23.5" customHeight="1">
       <c r="A13" s="18"/>
-      <c r="B13" s="186"/>
-      <c r="C13" s="187"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="155"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="155"/>
-      <c r="K13" s="173"/>
-      <c r="L13" s="156"/>
-      <c r="M13" s="155"/>
-      <c r="N13" s="156"/>
+      <c r="B13" s="198"/>
+      <c r="C13" s="199"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="165"/>
+      <c r="J13" s="164"/>
+      <c r="K13" s="185"/>
+      <c r="L13" s="165"/>
+      <c r="M13" s="164"/>
+      <c r="N13" s="165"/>
       <c r="O13" s="26"/>
       <c r="P13" s="13"/>
-      <c r="Q13" s="195"/>
-      <c r="R13" s="196"/>
+      <c r="Q13" s="213"/>
+      <c r="R13" s="214"/>
       <c r="S13" s="15"/>
-      <c r="T13" s="184"/>
-      <c r="U13" s="185"/>
-    </row>
-    <row r="14" spans="1:21" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T13" s="196"/>
+      <c r="U13" s="197"/>
+    </row>
+    <row r="14" spans="1:21" ht="23.5" customHeight="1">
       <c r="A14" s="18"/>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="156"/>
-      <c r="H14" s="155"/>
-      <c r="I14" s="156"/>
-      <c r="J14" s="155"/>
-      <c r="K14" s="173"/>
-      <c r="L14" s="156"/>
-      <c r="M14" s="155"/>
-      <c r="N14" s="156"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="185"/>
+      <c r="L14" s="165"/>
+      <c r="M14" s="164"/>
+      <c r="N14" s="165"/>
       <c r="O14" s="26"/>
       <c r="P14" s="13"/>
-      <c r="Q14" s="195"/>
-      <c r="R14" s="196"/>
+      <c r="Q14" s="213"/>
+      <c r="R14" s="214"/>
       <c r="S14" s="15"/>
-      <c r="T14" s="184"/>
-      <c r="U14" s="185"/>
-    </row>
-    <row r="15" spans="1:21" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T14" s="196"/>
+      <c r="U14" s="197"/>
+    </row>
+    <row r="15" spans="1:21" ht="23.5" customHeight="1">
       <c r="A15" s="18"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="156"/>
-      <c r="H15" s="155"/>
-      <c r="I15" s="156"/>
-      <c r="J15" s="155"/>
-      <c r="K15" s="173"/>
-      <c r="L15" s="156"/>
-      <c r="M15" s="155"/>
-      <c r="N15" s="156"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="185"/>
+      <c r="L15" s="165"/>
+      <c r="M15" s="164"/>
+      <c r="N15" s="165"/>
       <c r="O15" s="26"/>
       <c r="P15" s="13"/>
-      <c r="Q15" s="195"/>
-      <c r="R15" s="196"/>
+      <c r="Q15" s="213"/>
+      <c r="R15" s="214"/>
       <c r="S15" s="15"/>
-      <c r="T15" s="184"/>
-      <c r="U15" s="185"/>
-    </row>
-    <row r="16" spans="1:21" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T15" s="196"/>
+      <c r="U15" s="197"/>
+    </row>
+    <row r="16" spans="1:21" ht="16" customHeight="1" thickBot="1">
       <c r="A16" s="18"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="191"/>
-      <c r="L16" s="158"/>
-      <c r="M16" s="157"/>
-      <c r="N16" s="158"/>
-      <c r="O16" s="178"/>
-      <c r="P16" s="178"/>
-      <c r="Q16" s="197"/>
-      <c r="R16" s="198"/>
-      <c r="S16" s="201"/>
-      <c r="T16" s="180"/>
-      <c r="U16" s="181"/>
-    </row>
-    <row r="17" spans="1:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="166"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="166"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="166"/>
+      <c r="K16" s="202"/>
+      <c r="L16" s="167"/>
+      <c r="M16" s="166"/>
+      <c r="N16" s="167"/>
+      <c r="O16" s="190"/>
+      <c r="P16" s="190"/>
+      <c r="Q16" s="207"/>
+      <c r="R16" s="208"/>
+      <c r="S16" s="211"/>
+      <c r="T16" s="192"/>
+      <c r="U16" s="193"/>
+    </row>
+    <row r="17" spans="1:21" ht="7.5" customHeight="1">
       <c r="A17" s="18"/>
       <c r="B17" s="119" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="122"/>
-      <c r="D17" s="159"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="160"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="159"/>
-      <c r="K17" s="192"/>
-      <c r="L17" s="160"/>
-      <c r="M17" s="159"/>
-      <c r="N17" s="160"/>
-      <c r="O17" s="179"/>
-      <c r="P17" s="179"/>
-      <c r="Q17" s="199"/>
-      <c r="R17" s="200"/>
-      <c r="S17" s="202"/>
-      <c r="T17" s="182"/>
-      <c r="U17" s="183"/>
-    </row>
-    <row r="18" spans="1:21" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="168"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="168"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="168"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="168"/>
+      <c r="K17" s="203"/>
+      <c r="L17" s="169"/>
+      <c r="M17" s="168"/>
+      <c r="N17" s="169"/>
+      <c r="O17" s="191"/>
+      <c r="P17" s="191"/>
+      <c r="Q17" s="209"/>
+      <c r="R17" s="210"/>
+      <c r="S17" s="212"/>
+      <c r="T17" s="194"/>
+      <c r="U17" s="195"/>
+    </row>
+    <row r="18" spans="1:21" ht="23.5" customHeight="1">
       <c r="A18" s="18"/>
       <c r="B18" s="120"/>
       <c r="C18" s="123"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="156"/>
-      <c r="H18" s="155"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="155"/>
-      <c r="K18" s="173"/>
-      <c r="L18" s="156"/>
-      <c r="M18" s="155"/>
-      <c r="N18" s="156"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="164"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="164"/>
+      <c r="K18" s="185"/>
+      <c r="L18" s="165"/>
+      <c r="M18" s="164"/>
+      <c r="N18" s="165"/>
       <c r="O18" s="26"/>
       <c r="P18" s="13"/>
-      <c r="Q18" s="195"/>
-      <c r="R18" s="196"/>
+      <c r="Q18" s="213"/>
+      <c r="R18" s="214"/>
       <c r="S18" s="15"/>
-      <c r="T18" s="184"/>
-      <c r="U18" s="185"/>
-    </row>
-    <row r="19" spans="1:21" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T18" s="196"/>
+      <c r="U18" s="197"/>
+    </row>
+    <row r="19" spans="1:21" ht="23.5" customHeight="1">
       <c r="A19" s="18"/>
       <c r="B19" s="120"/>
       <c r="C19" s="123"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="155"/>
-      <c r="I19" s="156"/>
-      <c r="J19" s="155"/>
-      <c r="K19" s="173"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="155"/>
-      <c r="N19" s="156"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="165"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="164"/>
+      <c r="K19" s="185"/>
+      <c r="L19" s="165"/>
+      <c r="M19" s="164"/>
+      <c r="N19" s="165"/>
       <c r="O19" s="26"/>
       <c r="P19" s="13"/>
-      <c r="Q19" s="195"/>
-      <c r="R19" s="196"/>
+      <c r="Q19" s="213"/>
+      <c r="R19" s="214"/>
       <c r="S19" s="15"/>
-      <c r="T19" s="184"/>
-      <c r="U19" s="185"/>
-    </row>
-    <row r="20" spans="1:21" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T19" s="196"/>
+      <c r="U19" s="197"/>
+    </row>
+    <row r="20" spans="1:21" ht="23.5" customHeight="1">
       <c r="A20" s="18"/>
       <c r="B20" s="120"/>
       <c r="C20" s="123"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="155"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="155"/>
-      <c r="K20" s="173"/>
-      <c r="L20" s="156"/>
-      <c r="M20" s="155"/>
-      <c r="N20" s="156"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="164"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="164"/>
+      <c r="K20" s="185"/>
+      <c r="L20" s="165"/>
+      <c r="M20" s="164"/>
+      <c r="N20" s="165"/>
       <c r="O20" s="26"/>
       <c r="P20" s="13"/>
-      <c r="Q20" s="195"/>
-      <c r="R20" s="196"/>
+      <c r="Q20" s="213"/>
+      <c r="R20" s="214"/>
       <c r="S20" s="15"/>
-      <c r="T20" s="184"/>
-      <c r="U20" s="185"/>
-    </row>
-    <row r="21" spans="1:21" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T20" s="196"/>
+      <c r="U20" s="197"/>
+    </row>
+    <row r="21" spans="1:21" ht="19" customHeight="1" thickBot="1">
       <c r="A21" s="18"/>
       <c r="B21" s="121"/>
       <c r="C21" s="124"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="157"/>
-      <c r="I21" s="158"/>
-      <c r="J21" s="157"/>
-      <c r="K21" s="191"/>
-      <c r="L21" s="158"/>
-      <c r="M21" s="157"/>
-      <c r="N21" s="158"/>
-      <c r="O21" s="178"/>
-      <c r="P21" s="178"/>
-      <c r="Q21" s="197"/>
-      <c r="R21" s="198"/>
-      <c r="S21" s="201"/>
-      <c r="T21" s="180"/>
-      <c r="U21" s="181"/>
-    </row>
-    <row r="22" spans="1:21" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="166"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="166"/>
+      <c r="I21" s="167"/>
+      <c r="J21" s="166"/>
+      <c r="K21" s="202"/>
+      <c r="L21" s="167"/>
+      <c r="M21" s="166"/>
+      <c r="N21" s="167"/>
+      <c r="O21" s="190"/>
+      <c r="P21" s="190"/>
+      <c r="Q21" s="207"/>
+      <c r="R21" s="208"/>
+      <c r="S21" s="211"/>
+      <c r="T21" s="192"/>
+      <c r="U21" s="193"/>
+    </row>
+    <row r="22" spans="1:21" ht="4.5" customHeight="1">
       <c r="A22" s="18"/>
       <c r="B22" s="119" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="122"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="160"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="159"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="159"/>
-      <c r="K22" s="192"/>
-      <c r="L22" s="160"/>
-      <c r="M22" s="159"/>
-      <c r="N22" s="160"/>
-      <c r="O22" s="179"/>
-      <c r="P22" s="179"/>
-      <c r="Q22" s="199"/>
-      <c r="R22" s="200"/>
-      <c r="S22" s="202"/>
-      <c r="T22" s="182"/>
-      <c r="U22" s="183"/>
-    </row>
-    <row r="23" spans="1:21" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="168"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="168"/>
+      <c r="G22" s="169"/>
+      <c r="H22" s="168"/>
+      <c r="I22" s="169"/>
+      <c r="J22" s="168"/>
+      <c r="K22" s="203"/>
+      <c r="L22" s="169"/>
+      <c r="M22" s="168"/>
+      <c r="N22" s="169"/>
+      <c r="O22" s="191"/>
+      <c r="P22" s="191"/>
+      <c r="Q22" s="209"/>
+      <c r="R22" s="210"/>
+      <c r="S22" s="212"/>
+      <c r="T22" s="194"/>
+      <c r="U22" s="195"/>
+    </row>
+    <row r="23" spans="1:21" ht="23.5" customHeight="1">
       <c r="A23" s="18"/>
       <c r="B23" s="120"/>
       <c r="C23" s="123"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="156"/>
-      <c r="H23" s="155"/>
-      <c r="I23" s="156"/>
-      <c r="J23" s="155"/>
-      <c r="K23" s="173"/>
-      <c r="L23" s="156"/>
-      <c r="M23" s="155"/>
-      <c r="N23" s="156"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="164"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="164"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="164"/>
+      <c r="K23" s="185"/>
+      <c r="L23" s="165"/>
+      <c r="M23" s="164"/>
+      <c r="N23" s="165"/>
       <c r="O23" s="26"/>
       <c r="P23" s="13"/>
-      <c r="Q23" s="195"/>
-      <c r="R23" s="196"/>
+      <c r="Q23" s="213"/>
+      <c r="R23" s="214"/>
       <c r="S23" s="15"/>
-      <c r="T23" s="184"/>
-      <c r="U23" s="185"/>
-    </row>
-    <row r="24" spans="1:21" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T23" s="196"/>
+      <c r="U23" s="197"/>
+    </row>
+    <row r="24" spans="1:21" ht="23.5" customHeight="1">
       <c r="A24" s="18"/>
       <c r="B24" s="120"/>
       <c r="C24" s="123"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="155"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="155"/>
-      <c r="I24" s="156"/>
-      <c r="J24" s="155"/>
-      <c r="K24" s="173"/>
-      <c r="L24" s="156"/>
-      <c r="M24" s="155"/>
-      <c r="N24" s="156"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="165"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="164"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="164"/>
+      <c r="K24" s="185"/>
+      <c r="L24" s="165"/>
+      <c r="M24" s="164"/>
+      <c r="N24" s="165"/>
       <c r="O24" s="26"/>
       <c r="P24" s="13"/>
-      <c r="Q24" s="195"/>
-      <c r="R24" s="196"/>
+      <c r="Q24" s="213"/>
+      <c r="R24" s="214"/>
       <c r="S24" s="15"/>
-      <c r="T24" s="184"/>
-      <c r="U24" s="185"/>
-    </row>
-    <row r="25" spans="1:21" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T24" s="196"/>
+      <c r="U24" s="197"/>
+    </row>
+    <row r="25" spans="1:21" ht="17.5" customHeight="1" thickBot="1">
       <c r="A25" s="18"/>
       <c r="B25" s="121"/>
       <c r="C25" s="124"/>
-      <c r="D25" s="157"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="157"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="157"/>
-      <c r="K25" s="191"/>
-      <c r="L25" s="158"/>
-      <c r="M25" s="157"/>
-      <c r="N25" s="158"/>
-      <c r="O25" s="178"/>
-      <c r="P25" s="178"/>
-      <c r="Q25" s="197"/>
-      <c r="R25" s="198"/>
-      <c r="S25" s="201"/>
-      <c r="T25" s="180"/>
-      <c r="U25" s="181"/>
-    </row>
-    <row r="26" spans="1:21" ht="5.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="166"/>
+      <c r="E25" s="167"/>
+      <c r="F25" s="166"/>
+      <c r="G25" s="167"/>
+      <c r="H25" s="166"/>
+      <c r="I25" s="167"/>
+      <c r="J25" s="166"/>
+      <c r="K25" s="202"/>
+      <c r="L25" s="167"/>
+      <c r="M25" s="166"/>
+      <c r="N25" s="167"/>
+      <c r="O25" s="190"/>
+      <c r="P25" s="190"/>
+      <c r="Q25" s="207"/>
+      <c r="R25" s="208"/>
+      <c r="S25" s="211"/>
+      <c r="T25" s="192"/>
+      <c r="U25" s="193"/>
+    </row>
+    <row r="26" spans="1:21" ht="5.5" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="119" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="122"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="159"/>
-      <c r="I26" s="160"/>
-      <c r="J26" s="159"/>
-      <c r="K26" s="192"/>
-      <c r="L26" s="160"/>
-      <c r="M26" s="159"/>
-      <c r="N26" s="160"/>
-      <c r="O26" s="179"/>
-      <c r="P26" s="179"/>
-      <c r="Q26" s="199"/>
-      <c r="R26" s="200"/>
-      <c r="S26" s="202"/>
-      <c r="T26" s="182"/>
-      <c r="U26" s="183"/>
-    </row>
-    <row r="27" spans="1:21" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="168"/>
+      <c r="E26" s="169"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="169"/>
+      <c r="H26" s="168"/>
+      <c r="I26" s="169"/>
+      <c r="J26" s="168"/>
+      <c r="K26" s="203"/>
+      <c r="L26" s="169"/>
+      <c r="M26" s="168"/>
+      <c r="N26" s="169"/>
+      <c r="O26" s="191"/>
+      <c r="P26" s="191"/>
+      <c r="Q26" s="209"/>
+      <c r="R26" s="210"/>
+      <c r="S26" s="212"/>
+      <c r="T26" s="194"/>
+      <c r="U26" s="195"/>
+    </row>
+    <row r="27" spans="1:21" ht="23.5" customHeight="1">
       <c r="A27" s="18"/>
       <c r="B27" s="120"/>
       <c r="C27" s="123"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="155"/>
-      <c r="I27" s="156"/>
-      <c r="J27" s="155"/>
-      <c r="K27" s="173"/>
-      <c r="L27" s="156"/>
-      <c r="M27" s="155"/>
-      <c r="N27" s="156"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="164"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="164"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="164"/>
+      <c r="K27" s="185"/>
+      <c r="L27" s="165"/>
+      <c r="M27" s="164"/>
+      <c r="N27" s="165"/>
       <c r="O27" s="26"/>
       <c r="P27" s="13"/>
-      <c r="Q27" s="195"/>
-      <c r="R27" s="196"/>
+      <c r="Q27" s="213"/>
+      <c r="R27" s="214"/>
       <c r="S27" s="15"/>
-      <c r="T27" s="184"/>
-      <c r="U27" s="185"/>
-    </row>
-    <row r="28" spans="1:21" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T27" s="196"/>
+      <c r="U27" s="197"/>
+    </row>
+    <row r="28" spans="1:21" ht="23.5" customHeight="1">
       <c r="A28" s="18"/>
       <c r="B28" s="120"/>
       <c r="C28" s="123"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="173"/>
-      <c r="L28" s="156"/>
-      <c r="M28" s="155"/>
-      <c r="N28" s="156"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="164"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="164"/>
+      <c r="K28" s="185"/>
+      <c r="L28" s="165"/>
+      <c r="M28" s="164"/>
+      <c r="N28" s="165"/>
       <c r="O28" s="26"/>
       <c r="P28" s="13"/>
-      <c r="Q28" s="195"/>
-      <c r="R28" s="196"/>
+      <c r="Q28" s="213"/>
+      <c r="R28" s="214"/>
       <c r="S28" s="15"/>
-      <c r="T28" s="184"/>
-      <c r="U28" s="185"/>
-    </row>
-    <row r="29" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T28" s="196"/>
+      <c r="U28" s="197"/>
+    </row>
+    <row r="29" spans="1:21" ht="16.5" customHeight="1" thickBot="1">
       <c r="A29" s="18"/>
       <c r="B29" s="121"/>
       <c r="C29" s="124"/>
-      <c r="D29" s="157"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="157"/>
-      <c r="I29" s="158"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="191"/>
-      <c r="L29" s="158"/>
-      <c r="M29" s="157"/>
-      <c r="N29" s="158"/>
-      <c r="O29" s="178"/>
-      <c r="P29" s="178"/>
-      <c r="Q29" s="197"/>
-      <c r="R29" s="198"/>
-      <c r="S29" s="201"/>
-      <c r="T29" s="180"/>
-      <c r="U29" s="181"/>
-    </row>
-    <row r="30" spans="1:21" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D29" s="166"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="166"/>
+      <c r="G29" s="167"/>
+      <c r="H29" s="166"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="166"/>
+      <c r="K29" s="202"/>
+      <c r="L29" s="167"/>
+      <c r="M29" s="166"/>
+      <c r="N29" s="167"/>
+      <c r="O29" s="190"/>
+      <c r="P29" s="190"/>
+      <c r="Q29" s="207"/>
+      <c r="R29" s="208"/>
+      <c r="S29" s="211"/>
+      <c r="T29" s="192"/>
+      <c r="U29" s="193"/>
+    </row>
+    <row r="30" spans="1:21" ht="6.5" customHeight="1">
       <c r="A30" s="18"/>
       <c r="B30" s="119" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="122"/>
-      <c r="D30" s="159"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="159"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="159"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="159"/>
-      <c r="K30" s="192"/>
-      <c r="L30" s="160"/>
-      <c r="M30" s="159"/>
-      <c r="N30" s="160"/>
-      <c r="O30" s="179"/>
-      <c r="P30" s="179"/>
-      <c r="Q30" s="199"/>
-      <c r="R30" s="200"/>
-      <c r="S30" s="202"/>
-      <c r="T30" s="182"/>
-      <c r="U30" s="183"/>
-    </row>
-    <row r="31" spans="1:21" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="168"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="169"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="169"/>
+      <c r="J30" s="168"/>
+      <c r="K30" s="203"/>
+      <c r="L30" s="169"/>
+      <c r="M30" s="168"/>
+      <c r="N30" s="169"/>
+      <c r="O30" s="191"/>
+      <c r="P30" s="191"/>
+      <c r="Q30" s="209"/>
+      <c r="R30" s="210"/>
+      <c r="S30" s="212"/>
+      <c r="T30" s="194"/>
+      <c r="U30" s="195"/>
+    </row>
+    <row r="31" spans="1:21" ht="23.5" customHeight="1">
       <c r="A31" s="18"/>
       <c r="B31" s="120"/>
       <c r="C31" s="123"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="155"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="155"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="155"/>
-      <c r="K31" s="173"/>
-      <c r="L31" s="156"/>
-      <c r="M31" s="155"/>
-      <c r="N31" s="156"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="164"/>
+      <c r="I31" s="165"/>
+      <c r="J31" s="164"/>
+      <c r="K31" s="185"/>
+      <c r="L31" s="165"/>
+      <c r="M31" s="164"/>
+      <c r="N31" s="165"/>
       <c r="O31" s="26"/>
       <c r="P31" s="13"/>
-      <c r="Q31" s="195"/>
-      <c r="R31" s="196"/>
+      <c r="Q31" s="213"/>
+      <c r="R31" s="214"/>
       <c r="S31" s="15"/>
-      <c r="T31" s="184"/>
-      <c r="U31" s="185"/>
-    </row>
-    <row r="32" spans="1:21" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T31" s="196"/>
+      <c r="U31" s="197"/>
+    </row>
+    <row r="32" spans="1:21" ht="23.5" customHeight="1">
       <c r="A32" s="18"/>
       <c r="B32" s="120"/>
       <c r="C32" s="123"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="155"/>
-      <c r="I32" s="156"/>
-      <c r="J32" s="155"/>
-      <c r="K32" s="173"/>
-      <c r="L32" s="156"/>
-      <c r="M32" s="155"/>
-      <c r="N32" s="156"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="164"/>
+      <c r="I32" s="165"/>
+      <c r="J32" s="164"/>
+      <c r="K32" s="185"/>
+      <c r="L32" s="165"/>
+      <c r="M32" s="164"/>
+      <c r="N32" s="165"/>
       <c r="O32" s="26"/>
       <c r="P32" s="13"/>
-      <c r="Q32" s="195"/>
-      <c r="R32" s="196"/>
+      <c r="Q32" s="213"/>
+      <c r="R32" s="214"/>
       <c r="S32" s="15"/>
-      <c r="T32" s="184"/>
-      <c r="U32" s="185"/>
-    </row>
-    <row r="33" spans="1:21" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T32" s="196"/>
+      <c r="U32" s="197"/>
+    </row>
+    <row r="33" spans="1:21" ht="23.5" customHeight="1">
       <c r="A33" s="18"/>
       <c r="B33" s="120"/>
       <c r="C33" s="123"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="156"/>
-      <c r="H33" s="155"/>
-      <c r="I33" s="156"/>
-      <c r="J33" s="155"/>
-      <c r="K33" s="173"/>
-      <c r="L33" s="156"/>
-      <c r="M33" s="155"/>
-      <c r="N33" s="156"/>
+      <c r="D33" s="164"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="164"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="164"/>
+      <c r="I33" s="165"/>
+      <c r="J33" s="164"/>
+      <c r="K33" s="185"/>
+      <c r="L33" s="165"/>
+      <c r="M33" s="164"/>
+      <c r="N33" s="165"/>
       <c r="O33" s="26"/>
       <c r="P33" s="13"/>
-      <c r="Q33" s="195"/>
-      <c r="R33" s="196"/>
+      <c r="Q33" s="213"/>
+      <c r="R33" s="214"/>
       <c r="S33" s="15"/>
-      <c r="T33" s="184"/>
-      <c r="U33" s="185"/>
-    </row>
-    <row r="34" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T33" s="196"/>
+      <c r="U33" s="197"/>
+    </row>
+    <row r="34" spans="1:21" ht="18" customHeight="1" thickBot="1">
       <c r="A34" s="18"/>
       <c r="B34" s="121"/>
       <c r="C34" s="124"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="157"/>
-      <c r="I34" s="158"/>
-      <c r="J34" s="157"/>
-      <c r="K34" s="191"/>
-      <c r="L34" s="158"/>
-      <c r="M34" s="157"/>
-      <c r="N34" s="158"/>
-      <c r="O34" s="178"/>
-      <c r="P34" s="178"/>
-      <c r="Q34" s="197"/>
-      <c r="R34" s="198"/>
-      <c r="S34" s="201"/>
-      <c r="T34" s="180"/>
-      <c r="U34" s="181"/>
-    </row>
-    <row r="35" spans="1:21" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D34" s="166"/>
+      <c r="E34" s="167"/>
+      <c r="F34" s="166"/>
+      <c r="G34" s="167"/>
+      <c r="H34" s="166"/>
+      <c r="I34" s="167"/>
+      <c r="J34" s="166"/>
+      <c r="K34" s="202"/>
+      <c r="L34" s="167"/>
+      <c r="M34" s="166"/>
+      <c r="N34" s="167"/>
+      <c r="O34" s="190"/>
+      <c r="P34" s="190"/>
+      <c r="Q34" s="207"/>
+      <c r="R34" s="208"/>
+      <c r="S34" s="211"/>
+      <c r="T34" s="192"/>
+      <c r="U34" s="193"/>
+    </row>
+    <row r="35" spans="1:21" ht="5" customHeight="1">
       <c r="A35" s="18"/>
       <c r="B35" s="119" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="122"/>
-      <c r="D35" s="159"/>
-      <c r="E35" s="160"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="160"/>
-      <c r="H35" s="159"/>
-      <c r="I35" s="160"/>
-      <c r="J35" s="159"/>
-      <c r="K35" s="192"/>
-      <c r="L35" s="160"/>
-      <c r="M35" s="159"/>
-      <c r="N35" s="160"/>
-      <c r="O35" s="179"/>
-      <c r="P35" s="179"/>
-      <c r="Q35" s="199"/>
-      <c r="R35" s="200"/>
-      <c r="S35" s="202"/>
-      <c r="T35" s="182"/>
-      <c r="U35" s="183"/>
-    </row>
-    <row r="36" spans="1:21" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="168"/>
+      <c r="E35" s="169"/>
+      <c r="F35" s="168"/>
+      <c r="G35" s="169"/>
+      <c r="H35" s="168"/>
+      <c r="I35" s="169"/>
+      <c r="J35" s="168"/>
+      <c r="K35" s="203"/>
+      <c r="L35" s="169"/>
+      <c r="M35" s="168"/>
+      <c r="N35" s="169"/>
+      <c r="O35" s="191"/>
+      <c r="P35" s="191"/>
+      <c r="Q35" s="209"/>
+      <c r="R35" s="210"/>
+      <c r="S35" s="212"/>
+      <c r="T35" s="194"/>
+      <c r="U35" s="195"/>
+    </row>
+    <row r="36" spans="1:21" ht="23.5" customHeight="1" thickBot="1">
       <c r="A36" s="18"/>
       <c r="B36" s="120"/>
       <c r="C36" s="123"/>
-      <c r="D36" s="155"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="155"/>
-      <c r="G36" s="156"/>
-      <c r="H36" s="155"/>
-      <c r="I36" s="156"/>
-      <c r="J36" s="155"/>
-      <c r="K36" s="173"/>
-      <c r="L36" s="156"/>
-      <c r="M36" s="155"/>
-      <c r="N36" s="156"/>
+      <c r="D36" s="164"/>
+      <c r="E36" s="165"/>
+      <c r="F36" s="164"/>
+      <c r="G36" s="165"/>
+      <c r="H36" s="164"/>
+      <c r="I36" s="165"/>
+      <c r="J36" s="164"/>
+      <c r="K36" s="185"/>
+      <c r="L36" s="165"/>
+      <c r="M36" s="164"/>
+      <c r="N36" s="165"/>
       <c r="O36" s="26"/>
       <c r="P36" s="13"/>
-      <c r="Q36" s="195"/>
-      <c r="R36" s="196"/>
+      <c r="Q36" s="213"/>
+      <c r="R36" s="214"/>
       <c r="S36" s="15"/>
-      <c r="T36" s="184"/>
-      <c r="U36" s="185"/>
-    </row>
-    <row r="37" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T36" s="196"/>
+      <c r="U36" s="197"/>
+    </row>
+    <row r="37" spans="1:21" ht="14.25" customHeight="1">
       <c r="A37" s="18"/>
       <c r="B37" s="120"/>
       <c r="C37" s="123"/>
@@ -5145,20 +5195,20 @@
       <c r="I37" s="127"/>
       <c r="J37" s="127"/>
       <c r="K37" s="16"/>
-      <c r="L37" s="139"/>
-      <c r="M37" s="140"/>
-      <c r="N37" s="140"/>
-      <c r="O37" s="140"/>
-      <c r="P37" s="140"/>
-      <c r="Q37" s="140"/>
-      <c r="R37" s="140"/>
-      <c r="S37" s="140"/>
-      <c r="T37" s="148"/>
-      <c r="U37" s="171" t="s">
+      <c r="L37" s="141"/>
+      <c r="M37" s="142"/>
+      <c r="N37" s="142"/>
+      <c r="O37" s="142"/>
+      <c r="P37" s="142"/>
+      <c r="Q37" s="142"/>
+      <c r="R37" s="142"/>
+      <c r="S37" s="142"/>
+      <c r="T37" s="143"/>
+      <c r="U37" s="183" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="5.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="5.75" customHeight="1" thickBot="1">
       <c r="A38" s="18"/>
       <c r="B38" s="120"/>
       <c r="C38" s="123"/>
@@ -5170,41 +5220,41 @@
       <c r="I38" s="134"/>
       <c r="J38" s="134"/>
       <c r="K38" s="134"/>
-      <c r="L38" s="141"/>
-      <c r="M38" s="143"/>
-      <c r="N38" s="143"/>
-      <c r="O38" s="143"/>
-      <c r="P38" s="143"/>
-      <c r="Q38" s="143"/>
-      <c r="R38" s="143"/>
-      <c r="S38" s="143"/>
-      <c r="T38" s="170"/>
-      <c r="U38" s="172"/>
-    </row>
-    <row r="39" spans="1:21" ht="8.4499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L38" s="179"/>
+      <c r="M38" s="181"/>
+      <c r="N38" s="181"/>
+      <c r="O38" s="181"/>
+      <c r="P38" s="181"/>
+      <c r="Q38" s="181"/>
+      <c r="R38" s="181"/>
+      <c r="S38" s="181"/>
+      <c r="T38" s="182"/>
+      <c r="U38" s="184"/>
+    </row>
+    <row r="39" spans="1:21" ht="8.5" customHeight="1" thickBot="1">
       <c r="A39" s="18"/>
       <c r="B39" s="120"/>
       <c r="C39" s="123"/>
-      <c r="D39" s="174"/>
-      <c r="E39" s="174"/>
-      <c r="F39" s="174"/>
-      <c r="G39" s="174"/>
-      <c r="H39" s="174"/>
-      <c r="I39" s="174"/>
-      <c r="J39" s="174"/>
-      <c r="K39" s="175"/>
-      <c r="L39" s="141"/>
-      <c r="M39" s="143"/>
-      <c r="N39" s="143"/>
-      <c r="O39" s="143"/>
-      <c r="P39" s="143"/>
-      <c r="Q39" s="143"/>
-      <c r="R39" s="143"/>
-      <c r="S39" s="143"/>
-      <c r="T39" s="170"/>
-      <c r="U39" s="176"/>
-    </row>
-    <row r="40" spans="1:21" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="186"/>
+      <c r="E39" s="186"/>
+      <c r="F39" s="186"/>
+      <c r="G39" s="186"/>
+      <c r="H39" s="186"/>
+      <c r="I39" s="186"/>
+      <c r="J39" s="186"/>
+      <c r="K39" s="187"/>
+      <c r="L39" s="179"/>
+      <c r="M39" s="181"/>
+      <c r="N39" s="181"/>
+      <c r="O39" s="181"/>
+      <c r="P39" s="181"/>
+      <c r="Q39" s="181"/>
+      <c r="R39" s="181"/>
+      <c r="S39" s="181"/>
+      <c r="T39" s="182"/>
+      <c r="U39" s="188"/>
+    </row>
+    <row r="40" spans="1:21" ht="14" customHeight="1" thickBot="1">
       <c r="A40" s="18"/>
       <c r="B40" s="121"/>
       <c r="C40" s="124"/>
@@ -5234,10 +5284,10 @@
       <c r="Q40" s="145"/>
       <c r="R40" s="145"/>
       <c r="S40" s="145"/>
-      <c r="T40" s="149"/>
-      <c r="U40" s="177"/>
-    </row>
-    <row r="41" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T40" s="146"/>
+      <c r="U40" s="189"/>
+    </row>
+    <row r="41" spans="1:21" ht="13" customHeight="1">
       <c r="A41" s="31"/>
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
@@ -5497,6 +5547,7 @@
     <mergeCell ref="J34:L35"/>
     <mergeCell ref="M36:N36"/>
     <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="D38:D39"/>
     <mergeCell ref="T36:U36"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="G37:H37"/>
@@ -5509,7 +5560,6 @@
     <mergeCell ref="T34:U35"/>
     <mergeCell ref="M34:N35"/>
     <mergeCell ref="O34:O35"/>
-    <mergeCell ref="D38:D39"/>
     <mergeCell ref="E38:F39"/>
     <mergeCell ref="G38:H39"/>
     <mergeCell ref="I38:J39"/>
